--- a/dataSet/rawData/bd.xlsx
+++ b/dataSet/rawData/bd.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G232"/>
+  <dimension ref="A1:G233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,20 +472,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>29.12.2020</t>
+          <t>30.12.2020</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2626</v>
+        <v>2658</v>
       </c>
       <c r="D2" t="n">
-        <v>10722</v>
+        <v>10792</v>
       </c>
       <c r="E2" t="n">
         <v>129</v>
       </c>
       <c r="F2" t="n">
-        <v>1393</v>
+        <v>1429</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28.12.2020</t>
+          <t>29.12.2020</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2590</v>
+        <v>2626</v>
       </c>
       <c r="D3" t="n">
-        <v>10633</v>
+        <v>10722</v>
       </c>
       <c r="E3" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F3" t="n">
-        <v>1376</v>
+        <v>1393</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -522,20 +522,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>27.12.2020</t>
+          <t>28.12.2020</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="D4" t="n">
-        <v>10574</v>
+        <v>10633</v>
       </c>
       <c r="E4" t="n">
         <v>125</v>
       </c>
       <c r="F4" t="n">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -547,20 +547,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>26.12.2020</t>
+          <t>27.12.2020</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2574</v>
+        <v>2588</v>
       </c>
       <c r="D5" t="n">
-        <v>10515</v>
+        <v>10574</v>
       </c>
       <c r="E5" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F5" t="n">
-        <v>1328</v>
+        <v>1375</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -572,20 +572,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25.12.2020</t>
+          <t>26.12.2020</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2563</v>
+        <v>2574</v>
       </c>
       <c r="D6" t="n">
-        <v>10452</v>
+        <v>10515</v>
       </c>
       <c r="E6" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F6" t="n">
-        <v>1314</v>
+        <v>1328</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -597,20 +597,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24.12.2020</t>
+          <t>25.12.2020</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2534</v>
+        <v>2563</v>
       </c>
       <c r="D7" t="n">
-        <v>10404</v>
+        <v>10452</v>
       </c>
       <c r="E7" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F7" t="n">
-        <v>1296</v>
+        <v>1314</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -622,20 +622,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23.12.2020</t>
+          <t>24.12.2020</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2511</v>
+        <v>2534</v>
       </c>
       <c r="D8" t="n">
-        <v>10330</v>
+        <v>10404</v>
       </c>
       <c r="E8" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F8" t="n">
-        <v>1282</v>
+        <v>1296</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -647,20 +647,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22.12.2020</t>
+          <t>23.12.2020</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2496</v>
+        <v>2511</v>
       </c>
       <c r="D9" t="n">
-        <v>10270</v>
+        <v>10330</v>
       </c>
       <c r="E9" t="n">
         <v>118</v>
       </c>
       <c r="F9" t="n">
-        <v>1276</v>
+        <v>1282</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -672,20 +672,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>21.12.2020</t>
+          <t>22.12.2020</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2465</v>
+        <v>2496</v>
       </c>
       <c r="D10" t="n">
-        <v>10207</v>
+        <v>10270</v>
       </c>
       <c r="E10" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F10" t="n">
-        <v>1270</v>
+        <v>1276</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -697,20 +697,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20.12.2020</t>
+          <t>21.12.2020</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="D11" t="n">
-        <v>10144</v>
+        <v>10207</v>
       </c>
       <c r="E11" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F11" t="n">
-        <v>1260</v>
+        <v>1270</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -722,20 +722,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>19.12.2020</t>
+          <t>20.12.2020</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2450</v>
+        <v>2463</v>
       </c>
       <c r="D12" t="n">
-        <v>10100</v>
+        <v>10144</v>
       </c>
       <c r="E12" t="n">
         <v>115</v>
       </c>
       <c r="F12" t="n">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -747,20 +747,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>18.12.2020</t>
+          <t>19.12.2020</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2428</v>
+        <v>2450</v>
       </c>
       <c r="D13" t="n">
-        <v>10059</v>
+        <v>10100</v>
       </c>
       <c r="E13" t="n">
         <v>115</v>
       </c>
       <c r="F13" t="n">
-        <v>1247</v>
+        <v>1255</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -772,20 +772,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17.12.2020</t>
+          <t>18.12.2020</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2390</v>
+        <v>2428</v>
       </c>
       <c r="D14" t="n">
-        <v>9980</v>
+        <v>10059</v>
       </c>
       <c r="E14" t="n">
         <v>115</v>
       </c>
       <c r="F14" t="n">
-        <v>1227</v>
+        <v>1247</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -797,20 +797,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16.12.2020</t>
+          <t>17.12.2020</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2367</v>
+        <v>2390</v>
       </c>
       <c r="D15" t="n">
-        <v>9895</v>
+        <v>9980</v>
       </c>
       <c r="E15" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F15" t="n">
-        <v>1205</v>
+        <v>1227</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -822,20 +822,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15.12.2020</t>
+          <t>16.12.2020</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2324</v>
+        <v>2367</v>
       </c>
       <c r="D16" t="n">
-        <v>9819</v>
+        <v>9895</v>
       </c>
       <c r="E16" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F16" t="n">
-        <v>1183</v>
+        <v>1205</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -847,20 +847,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14.12.2020</t>
+          <t>15.12.2020</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2272</v>
+        <v>2324</v>
       </c>
       <c r="D17" t="n">
-        <v>9727</v>
+        <v>9819</v>
       </c>
       <c r="E17" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" t="n">
-        <v>1174</v>
+        <v>1183</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -872,20 +872,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>13.12.2020</t>
+          <t>14.12.2020</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2268</v>
+        <v>2272</v>
       </c>
       <c r="D18" t="n">
-        <v>9677</v>
+        <v>9727</v>
       </c>
       <c r="E18" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F18" t="n">
-        <v>1152</v>
+        <v>1174</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -897,20 +897,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12.12.2020</t>
+          <t>13.12.2020</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="D19" t="n">
-        <v>9634</v>
+        <v>9677</v>
       </c>
       <c r="E19" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F19" t="n">
-        <v>1136</v>
+        <v>1152</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -922,20 +922,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11.12.2020</t>
+          <t>12.12.2020</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2239</v>
+        <v>2266</v>
       </c>
       <c r="D20" t="n">
-        <v>9558</v>
+        <v>9634</v>
       </c>
       <c r="E20" t="n">
         <v>108</v>
       </c>
       <c r="F20" t="n">
-        <v>1058</v>
+        <v>1136</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -947,20 +947,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10.12.2020</t>
+          <t>11.12.2020</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2211</v>
+        <v>2239</v>
       </c>
       <c r="D21" t="n">
-        <v>9476</v>
+        <v>9558</v>
       </c>
       <c r="E21" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F21" t="n">
-        <v>1024</v>
+        <v>1058</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -972,20 +972,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>09.12.2020</t>
+          <t>10.12.2020</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2165</v>
+        <v>2211</v>
       </c>
       <c r="D22" t="n">
-        <v>9365</v>
+        <v>9476</v>
       </c>
       <c r="E22" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F22" t="n">
-        <v>979</v>
+        <v>1024</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -997,20 +997,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>08.12.2020</t>
+          <t>09.12.2020</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2124</v>
+        <v>2165</v>
       </c>
       <c r="D23" t="n">
-        <v>9308</v>
+        <v>9365</v>
       </c>
       <c r="E23" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F23" t="n">
-        <v>964</v>
+        <v>979</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1022,20 +1022,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>07.12.2020</t>
+          <t>08.12.2020</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2059</v>
+        <v>2124</v>
       </c>
       <c r="D24" t="n">
-        <v>9196</v>
+        <v>9308</v>
       </c>
       <c r="E24" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F24" t="n">
-        <v>942</v>
+        <v>964</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1047,20 +1047,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>06.12.2020</t>
+          <t>07.12.2020</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="D25" t="n">
-        <v>9141</v>
+        <v>9196</v>
       </c>
       <c r="E25" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F25" t="n">
-        <v>923</v>
+        <v>942</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1072,20 +1072,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>05.12.2020</t>
+          <t>06.12.2020</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2044</v>
+        <v>2058</v>
       </c>
       <c r="D26" t="n">
-        <v>9073</v>
+        <v>9141</v>
       </c>
       <c r="E26" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F26" t="n">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1097,20 +1097,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>04.12.2020</t>
+          <t>05.12.2020</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2012</v>
+        <v>2044</v>
       </c>
       <c r="D27" t="n">
-        <v>8991</v>
+        <v>9073</v>
       </c>
       <c r="E27" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F27" t="n">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1122,20 +1122,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>03.12.2020</t>
+          <t>04.12.2020</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1973</v>
+        <v>2012</v>
       </c>
       <c r="D28" t="n">
-        <v>8897</v>
+        <v>8991</v>
       </c>
       <c r="E28" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F28" t="n">
-        <v>883</v>
+        <v>916</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1147,20 +1147,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>02.12.2020</t>
+          <t>03.12.2020</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1938</v>
+        <v>1973</v>
       </c>
       <c r="D29" t="n">
-        <v>8801</v>
+        <v>8897</v>
       </c>
       <c r="E29" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F29" t="n">
-        <v>869</v>
+        <v>883</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1172,20 +1172,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01.12.2020</t>
+          <t>02.12.2020</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1890</v>
+        <v>1938</v>
       </c>
       <c r="D30" t="n">
-        <v>8703</v>
+        <v>8801</v>
       </c>
       <c r="E30" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F30" t="n">
-        <v>840</v>
+        <v>869</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1197,20 +1197,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>30.11.2020</t>
+          <t>01.12.2020</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1821</v>
+        <v>1890</v>
       </c>
       <c r="D31" t="n">
-        <v>8629</v>
+        <v>8703</v>
       </c>
       <c r="E31" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F31" t="n">
-        <v>805</v>
+        <v>840</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1222,20 +1222,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>29.11.2020</t>
+          <t>30.11.2020</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1812</v>
+        <v>1821</v>
       </c>
       <c r="D32" t="n">
-        <v>8558</v>
+        <v>8629</v>
       </c>
       <c r="E32" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F32" t="n">
-        <v>755</v>
+        <v>805</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1247,20 +1247,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>28.11.2020</t>
+          <t>29.11.2020</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="D33" t="n">
-        <v>8528</v>
+        <v>8558</v>
       </c>
       <c r="E33" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F33" t="n">
-        <v>708</v>
+        <v>755</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1272,20 +1272,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>27.11.2020</t>
+          <t>28.11.2020</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1759</v>
+        <v>1804</v>
       </c>
       <c r="D34" t="n">
-        <v>8447</v>
+        <v>8528</v>
       </c>
       <c r="E34" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F34" t="n">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1297,20 +1297,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>26.11.2020</t>
+          <t>27.11.2020</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1706</v>
+        <v>1759</v>
       </c>
       <c r="D35" t="n">
-        <v>8339</v>
+        <v>8447</v>
       </c>
       <c r="E35" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" t="n">
-        <v>681</v>
+        <v>703</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1322,20 +1322,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>25.11.2020</t>
+          <t>26.11.2020</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1648</v>
+        <v>1706</v>
       </c>
       <c r="D36" t="n">
-        <v>8254</v>
+        <v>8339</v>
       </c>
       <c r="E36" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F36" t="n">
-        <v>652</v>
+        <v>681</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1347,20 +1347,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>24.11.2020</t>
+          <t>25.11.2020</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1564</v>
+        <v>1648</v>
       </c>
       <c r="D37" t="n">
-        <v>8155</v>
+        <v>8254</v>
       </c>
       <c r="E37" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F37" t="n">
-        <v>631</v>
+        <v>652</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1372,20 +1372,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>23.11.2020</t>
+          <t>24.11.2020</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1507</v>
+        <v>1564</v>
       </c>
       <c r="D38" t="n">
-        <v>8069</v>
+        <v>8155</v>
       </c>
       <c r="E38" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F38" t="n">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1397,20 +1397,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>22.11.2020</t>
+          <t>23.11.2020</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="D39" t="n">
-        <v>7995</v>
+        <v>8069</v>
       </c>
       <c r="E39" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F39" t="n">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1422,20 +1422,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>21.11.2020</t>
+          <t>22.11.2020</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1495</v>
+        <v>1503</v>
       </c>
       <c r="D40" t="n">
-        <v>7895</v>
+        <v>7995</v>
       </c>
       <c r="E40" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F40" t="n">
-        <v>547</v>
+        <v>606</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1447,20 +1447,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>20.11.2020</t>
+          <t>21.11.2020</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1426</v>
+        <v>1495</v>
       </c>
       <c r="D41" t="n">
-        <v>7837</v>
+        <v>7895</v>
       </c>
       <c r="E41" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F41" t="n">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1472,20 +1472,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>19.11.2020</t>
+          <t>20.11.2020</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1368</v>
+        <v>1426</v>
       </c>
       <c r="D42" t="n">
-        <v>7629</v>
+        <v>7837</v>
       </c>
       <c r="E42" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F42" t="n">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1497,17 +1497,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>18.11.2020</t>
+          <t>19.11.2020</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1285</v>
+        <v>1368</v>
       </c>
       <c r="D43" t="n">
-        <v>7521</v>
+        <v>7629</v>
       </c>
       <c r="E43" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F43" t="n">
         <v>491</v>
@@ -1522,17 +1522,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>17.11.2020</t>
+          <t>18.11.2020</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1189</v>
+        <v>1285</v>
       </c>
       <c r="D44" t="n">
-        <v>7459</v>
+        <v>7521</v>
       </c>
       <c r="E44" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F44" t="n">
         <v>491</v>
@@ -1547,20 +1547,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16.11.2020</t>
+          <t>17.11.2020</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1141</v>
+        <v>1189</v>
       </c>
       <c r="D45" t="n">
-        <v>7336</v>
+        <v>7459</v>
       </c>
       <c r="E45" t="n">
         <v>53</v>
       </c>
       <c r="F45" t="n">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1572,20 +1572,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>15.11.2020</t>
+          <t>16.11.2020</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1134</v>
+        <v>1141</v>
       </c>
       <c r="D46" t="n">
-        <v>7080</v>
+        <v>7336</v>
       </c>
       <c r="E46" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F46" t="n">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1597,20 +1597,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>14.11.2020</t>
+          <t>15.11.2020</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D47" t="n">
-        <v>7001</v>
+        <v>7080</v>
       </c>
       <c r="E47" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F47" t="n">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1622,20 +1622,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>13.11.2020</t>
+          <t>14.11.2020</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1081</v>
+        <v>1133</v>
       </c>
       <c r="D48" t="n">
-        <v>6915</v>
+        <v>7001</v>
       </c>
       <c r="E48" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F48" t="n">
-        <v>423</v>
+        <v>461</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1647,20 +1647,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>12.11.2020</t>
+          <t>13.11.2020</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1030</v>
+        <v>1081</v>
       </c>
       <c r="D49" t="n">
-        <v>6771</v>
+        <v>6915</v>
       </c>
       <c r="E49" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F49" t="n">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1672,20 +1672,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.11.2020</t>
+          <t>12.11.2020</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>938</v>
+        <v>1030</v>
       </c>
       <c r="D50" t="n">
-        <v>6644</v>
+        <v>6771</v>
       </c>
       <c r="E50" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F50" t="n">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1697,20 +1697,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10.11.2020</t>
+          <t>11.11.2020</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>844</v>
+        <v>938</v>
       </c>
       <c r="D51" t="n">
-        <v>6518</v>
+        <v>6644</v>
       </c>
       <c r="E51" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F51" t="n">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1722,20 +1722,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>09.11.2020</t>
+          <t>10.11.2020</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="D52" t="n">
-        <v>6422</v>
+        <v>6518</v>
       </c>
       <c r="E52" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F52" t="n">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1747,20 +1747,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>08.11.2020</t>
+          <t>09.11.2020</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="D53" t="n">
-        <v>6363</v>
+        <v>6422</v>
       </c>
       <c r="E53" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F53" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1772,20 +1772,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>07.11.2020</t>
+          <t>08.11.2020</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="D54" t="n">
-        <v>6275</v>
+        <v>6363</v>
       </c>
       <c r="E54" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F54" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1797,20 +1797,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>06.11.2020</t>
+          <t>07.11.2020</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>779</v>
+        <v>823</v>
       </c>
       <c r="D55" t="n">
-        <v>6202</v>
+        <v>6275</v>
       </c>
       <c r="E55" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F55" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1822,20 +1822,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>05.11.2020</t>
+          <t>06.11.2020</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>744</v>
+        <v>779</v>
       </c>
       <c r="D56" t="n">
-        <v>6049</v>
+        <v>6202</v>
       </c>
       <c r="E56" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F56" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1847,20 +1847,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>04.11.2020</t>
+          <t>05.11.2020</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="D57" t="n">
-        <v>5959</v>
+        <v>6049</v>
       </c>
       <c r="E57" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F57" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1872,20 +1872,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>03.11.2020</t>
+          <t>04.11.2020</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>678</v>
+        <v>720</v>
       </c>
       <c r="D58" t="n">
-        <v>5843</v>
+        <v>5959</v>
       </c>
       <c r="E58" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F58" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1897,17 +1897,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>02.11.2020</t>
+          <t>03.11.2020</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>580</v>
+        <v>678</v>
       </c>
       <c r="D59" t="n">
-        <v>5750</v>
+        <v>5843</v>
       </c>
       <c r="E59" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F59" t="n">
         <v>318</v>
@@ -1922,20 +1922,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>01.11.2020</t>
+          <t>02.11.2020</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D60" t="n">
-        <v>5684</v>
+        <v>5750</v>
       </c>
       <c r="E60" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F60" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1947,20 +1947,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>31.10.2020</t>
+          <t>01.11.2020</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="D61" t="n">
-        <v>5633</v>
+        <v>5684</v>
       </c>
       <c r="E61" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F61" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1972,20 +1972,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>30.10.2020</t>
+          <t>31.10.2020</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>532</v>
+        <v>573</v>
       </c>
       <c r="D62" t="n">
-        <v>5506</v>
+        <v>5633</v>
       </c>
       <c r="E62" t="n">
         <v>26</v>
       </c>
       <c r="F62" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1997,20 +1997,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>29.10.2020</t>
+          <t>30.10.2020</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>483</v>
+        <v>532</v>
       </c>
       <c r="D63" t="n">
-        <v>5404</v>
+        <v>5506</v>
       </c>
       <c r="E63" t="n">
         <v>26</v>
       </c>
       <c r="F63" t="n">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2022,20 +2022,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>28.10.2020</t>
+          <t>29.10.2020</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="D64" t="n">
-        <v>5314</v>
+        <v>5404</v>
       </c>
       <c r="E64" t="n">
         <v>26</v>
       </c>
       <c r="F64" t="n">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2047,17 +2047,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>27.10.2020</t>
+          <t>28.10.2020</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="D65" t="n">
-        <v>5240</v>
+        <v>5314</v>
       </c>
       <c r="E65" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F65" t="n">
         <v>299</v>
@@ -2072,20 +2072,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>26.10.2020</t>
+          <t>27.10.2020</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="D66" t="n">
-        <v>5163</v>
+        <v>5240</v>
       </c>
       <c r="E66" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F66" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2097,17 +2097,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>25.10.2020</t>
+          <t>26.10.2020</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D67" t="n">
-        <v>5129</v>
+        <v>5163</v>
       </c>
       <c r="E67" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F67" t="n">
         <v>298</v>
@@ -2122,17 +2122,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>24.10.2020</t>
+          <t>25.10.2020</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D68" t="n">
-        <v>5091</v>
+        <v>5129</v>
       </c>
       <c r="E68" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F68" t="n">
         <v>298</v>
@@ -2147,14 +2147,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>23.10.2020</t>
+          <t>24.10.2020</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D69" t="n">
-        <v>5072</v>
+        <v>5091</v>
       </c>
       <c r="E69" t="n">
         <v>21</v>
@@ -2172,20 +2172,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>22.10.2020</t>
+          <t>23.10.2020</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D70" t="n">
-        <v>5039</v>
+        <v>5072</v>
       </c>
       <c r="E70" t="n">
         <v>21</v>
       </c>
       <c r="F70" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2197,14 +2197,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>21.10.2020</t>
+          <t>22.10.2020</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D71" t="n">
-        <v>4992</v>
+        <v>5039</v>
       </c>
       <c r="E71" t="n">
         <v>21</v>
@@ -2222,20 +2222,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>20.10.2020</t>
+          <t>21.10.2020</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D72" t="n">
-        <v>4948</v>
+        <v>4992</v>
       </c>
       <c r="E72" t="n">
         <v>21</v>
       </c>
       <c r="F72" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2247,14 +2247,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>19.10.2020</t>
+          <t>20.10.2020</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D73" t="n">
-        <v>4911</v>
+        <v>4948</v>
       </c>
       <c r="E73" t="n">
         <v>21</v>
@@ -2272,20 +2272,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.10.2020</t>
+          <t>19.10.2020</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D74" t="n">
-        <v>4811</v>
+        <v>4911</v>
       </c>
       <c r="E74" t="n">
         <v>21</v>
       </c>
       <c r="F74" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>15.10.2020</t>
+          <t>16.10.2020</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D75" t="n">
-        <v>4743</v>
+        <v>4811</v>
       </c>
       <c r="E75" t="n">
         <v>21</v>
       </c>
       <c r="F75" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2322,14 +2322,14 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>14.10.2020</t>
+          <t>15.10.2020</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D76" t="n">
-        <v>4683</v>
+        <v>4743</v>
       </c>
       <c r="E76" t="n">
         <v>21</v>
@@ -2347,20 +2347,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>13.10.2020</t>
+          <t>14.10.2020</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D77" t="n">
-        <v>4630</v>
+        <v>4683</v>
       </c>
       <c r="E77" t="n">
         <v>21</v>
       </c>
       <c r="F77" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2372,14 +2372,14 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>12.10.2020</t>
+          <t>13.10.2020</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D78" t="n">
-        <v>4565</v>
+        <v>4630</v>
       </c>
       <c r="E78" t="n">
         <v>21</v>
@@ -2397,14 +2397,14 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>09.10.2020</t>
+          <t>12.10.2020</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D79" t="n">
-        <v>4388</v>
+        <v>4565</v>
       </c>
       <c r="E79" t="n">
         <v>21</v>
@@ -2422,20 +2422,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>08.10.2020</t>
+          <t>09.10.2020</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D80" t="n">
-        <v>4347</v>
+        <v>4388</v>
       </c>
       <c r="E80" t="n">
         <v>21</v>
       </c>
       <c r="F80" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2447,14 +2447,14 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>07.10.2020</t>
+          <t>08.10.2020</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D81" t="n">
-        <v>4276</v>
+        <v>4347</v>
       </c>
       <c r="E81" t="n">
         <v>21</v>
@@ -2472,14 +2472,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>06.10.2020</t>
+          <t>07.10.2020</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D82" t="n">
-        <v>4235</v>
+        <v>4276</v>
       </c>
       <c r="E82" t="n">
         <v>21</v>
@@ -2497,20 +2497,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>05.10.2020</t>
+          <t>06.10.2020</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>317</v>
       </c>
       <c r="D83" t="n">
-        <v>4176</v>
+        <v>4235</v>
       </c>
       <c r="E83" t="n">
         <v>21</v>
       </c>
       <c r="F83" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2522,14 +2522,14 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>02.10.2020</t>
+          <t>05.10.2020</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D84" t="n">
-        <v>4085</v>
+        <v>4176</v>
       </c>
       <c r="E84" t="n">
         <v>21</v>
@@ -2547,14 +2547,14 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>01.10.2020</t>
+          <t>02.10.2020</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D85" t="n">
-        <v>4040</v>
+        <v>4085</v>
       </c>
       <c r="E85" t="n">
         <v>21</v>
@@ -2572,14 +2572,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>30.09.2020</t>
+          <t>01.10.2020</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>314</v>
       </c>
       <c r="D86" t="n">
-        <v>3993</v>
+        <v>4040</v>
       </c>
       <c r="E86" t="n">
         <v>21</v>
@@ -2597,14 +2597,14 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>29.09.2020</t>
+          <t>30.09.2020</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D87" t="n">
-        <v>3946</v>
+        <v>3993</v>
       </c>
       <c r="E87" t="n">
         <v>21</v>
@@ -2622,14 +2622,14 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>28.09.2020</t>
+          <t>29.09.2020</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>313</v>
       </c>
       <c r="D88" t="n">
-        <v>3881</v>
+        <v>3946</v>
       </c>
       <c r="E88" t="n">
         <v>21</v>
@@ -2647,20 +2647,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>25.09.2020</t>
+          <t>28.09.2020</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D89" t="n">
-        <v>3829</v>
+        <v>3881</v>
       </c>
       <c r="E89" t="n">
         <v>21</v>
       </c>
       <c r="F89" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2672,20 +2672,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>24.09.2020</t>
+          <t>25.09.2020</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D90" t="n">
-        <v>3761</v>
+        <v>3829</v>
       </c>
       <c r="E90" t="n">
         <v>21</v>
       </c>
       <c r="F90" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2697,20 +2697,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>23.09.2020</t>
+          <t>24.09.2020</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>307</v>
       </c>
       <c r="D91" t="n">
-        <v>3708</v>
+        <v>3761</v>
       </c>
       <c r="E91" t="n">
         <v>21</v>
       </c>
       <c r="F91" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2722,20 +2722,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>22.09.2020</t>
+          <t>23.09.2020</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D92" t="n">
-        <v>3647</v>
+        <v>3708</v>
       </c>
       <c r="E92" t="n">
         <v>21</v>
       </c>
       <c r="F92" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2747,20 +2747,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>21.09.2020</t>
+          <t>22.09.2020</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D93" t="n">
-        <v>3600</v>
+        <v>3647</v>
       </c>
       <c r="E93" t="n">
         <v>21</v>
       </c>
       <c r="F93" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2772,17 +2772,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>18.09.2020</t>
+          <t>21.09.2020</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D94" t="n">
-        <v>3559</v>
+        <v>3600</v>
       </c>
       <c r="E94" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F94" t="n">
         <v>276</v>
@@ -2797,14 +2797,14 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>17.09.2020</t>
+          <t>18.09.2020</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>304</v>
       </c>
       <c r="D95" t="n">
-        <v>3520</v>
+        <v>3559</v>
       </c>
       <c r="E95" t="n">
         <v>20</v>
@@ -2822,20 +2822,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16.09.2020</t>
+          <t>17.09.2020</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>304</v>
       </c>
       <c r="D96" t="n">
-        <v>3496</v>
+        <v>3520</v>
       </c>
       <c r="E96" t="n">
         <v>20</v>
       </c>
       <c r="F96" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -2847,20 +2847,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>15.09.2020</t>
+          <t>16.09.2020</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>304</v>
       </c>
       <c r="D97" t="n">
-        <v>3431</v>
+        <v>3496</v>
       </c>
       <c r="E97" t="n">
         <v>20</v>
       </c>
       <c r="F97" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -2872,17 +2872,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>14.09.2020</t>
+          <t>15.09.2020</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D98" t="n">
-        <v>3375</v>
+        <v>3431</v>
       </c>
       <c r="E98" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F98" t="n">
         <v>272</v>
@@ -2897,20 +2897,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>11.09.2020</t>
+          <t>14.09.2020</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D99" t="n">
-        <v>3329</v>
+        <v>3375</v>
       </c>
       <c r="E99" t="n">
         <v>19</v>
       </c>
       <c r="F99" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -2922,20 +2922,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>10.09.2020</t>
+          <t>11.09.2020</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D100" t="n">
-        <v>3283</v>
+        <v>3329</v>
       </c>
       <c r="E100" t="n">
         <v>19</v>
       </c>
       <c r="F100" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -2947,20 +2947,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>09.09.2020</t>
+          <t>10.09.2020</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D101" t="n">
-        <v>3243</v>
+        <v>3283</v>
       </c>
       <c r="E101" t="n">
         <v>19</v>
       </c>
       <c r="F101" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -2972,14 +2972,14 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>08.09.2020</t>
+          <t>09.09.2020</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D102" t="n">
-        <v>3199</v>
+        <v>3243</v>
       </c>
       <c r="E102" t="n">
         <v>19</v>
@@ -2997,20 +2997,20 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>07.09.2020</t>
+          <t>08.09.2020</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D103" t="n">
-        <v>3165</v>
+        <v>3199</v>
       </c>
       <c r="E103" t="n">
         <v>19</v>
       </c>
       <c r="F103" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3022,20 +3022,20 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>05.09.2020</t>
+          <t>07.09.2020</t>
         </is>
       </c>
       <c r="C104" t="n">
         <v>292</v>
       </c>
       <c r="D104" t="n">
-        <v>3125</v>
+        <v>3165</v>
       </c>
       <c r="E104" t="n">
         <v>19</v>
       </c>
       <c r="F104" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -3047,20 +3047,20 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>04.09.2020</t>
+          <t>05.09.2020</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D105" t="n">
-        <v>3098</v>
+        <v>3125</v>
       </c>
       <c r="E105" t="n">
         <v>19</v>
       </c>
       <c r="F105" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -3072,20 +3072,20 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>03.09.2020</t>
+          <t>04.09.2020</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D106" t="n">
-        <v>3061</v>
+        <v>3098</v>
       </c>
       <c r="E106" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F106" t="n">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3097,20 +3097,20 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>02.09.2020</t>
+          <t>03.09.2020</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D107" t="n">
-        <v>3015</v>
+        <v>3061</v>
       </c>
       <c r="E107" t="n">
         <v>18</v>
       </c>
       <c r="F107" t="n">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3122,20 +3122,20 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>01.09.2020</t>
+          <t>02.09.2020</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D108" t="n">
-        <v>2990</v>
+        <v>3015</v>
       </c>
       <c r="E108" t="n">
         <v>18</v>
       </c>
       <c r="F108" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3147,20 +3147,20 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>31.08.2020</t>
+          <t>01.09.2020</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>286</v>
       </c>
       <c r="D109" t="n">
-        <v>2976</v>
+        <v>2990</v>
       </c>
       <c r="E109" t="n">
         <v>18</v>
       </c>
       <c r="F109" t="n">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3172,20 +3172,20 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>30.08.2020</t>
+          <t>31.08.2020</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>286</v>
       </c>
       <c r="D110" t="n">
-        <v>2945</v>
+        <v>2976</v>
       </c>
       <c r="E110" t="n">
         <v>18</v>
       </c>
       <c r="F110" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3197,20 +3197,20 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>29.08.2020</t>
+          <t>30.08.2020</t>
         </is>
       </c>
       <c r="C111" t="n">
         <v>286</v>
       </c>
       <c r="D111" t="n">
-        <v>2941</v>
+        <v>2945</v>
       </c>
       <c r="E111" t="n">
         <v>18</v>
       </c>
       <c r="F111" t="n">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -3222,14 +3222,14 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>28.08.2020</t>
+          <t>29.08.2020</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D112" t="n">
-        <v>2904</v>
+        <v>2941</v>
       </c>
       <c r="E112" t="n">
         <v>18</v>
@@ -3247,14 +3247,14 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>27.08.2020</t>
+          <t>28.08.2020</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D113" t="n">
-        <v>2844</v>
+        <v>2904</v>
       </c>
       <c r="E113" t="n">
         <v>18</v>
@@ -3272,22 +3272,24 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>26.08.2020</t>
+          <t>27.08.2020</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D114" t="n">
-        <v>2804</v>
+        <v>2844</v>
       </c>
       <c r="E114" t="n">
         <v>18</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
-      </c>
-      <c r="G114" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3295,14 +3297,14 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>25.08.2020</t>
+          <t>26.08.2020</t>
         </is>
       </c>
       <c r="C115" t="n">
         <v>280</v>
       </c>
       <c r="D115" t="n">
-        <v>2775</v>
+        <v>2804</v>
       </c>
       <c r="E115" t="n">
         <v>18</v>
@@ -3318,14 +3320,14 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>24.08.2020</t>
+          <t>25.08.2020</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D116" t="n">
-        <v>2764</v>
+        <v>2775</v>
       </c>
       <c r="E116" t="n">
         <v>18</v>
@@ -3341,17 +3343,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>20.08.2020</t>
+          <t>24.08.2020</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D117" t="n">
-        <v>2563</v>
+        <v>2764</v>
       </c>
       <c r="E117" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3364,14 +3366,14 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>19.08.2020</t>
+          <t>20.08.2020</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D118" t="n">
-        <v>2536</v>
+        <v>2563</v>
       </c>
       <c r="E118" t="n">
         <v>16</v>
@@ -3387,14 +3389,14 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>18.08.2020</t>
+          <t>19.08.2020</t>
         </is>
       </c>
       <c r="C119" t="n">
         <v>266</v>
       </c>
       <c r="D119" t="n">
-        <v>2497</v>
+        <v>2536</v>
       </c>
       <c r="E119" t="n">
         <v>16</v>
@@ -3410,17 +3412,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>17.08.2020</t>
+          <t>18.08.2020</t>
         </is>
       </c>
       <c r="C120" t="n">
         <v>266</v>
       </c>
       <c r="D120" t="n">
-        <v>2448</v>
+        <v>2497</v>
       </c>
       <c r="E120" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3433,14 +3435,14 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>14.08.2020</t>
+          <t>17.08.2020</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="D121" t="n">
-        <v>2412</v>
+        <v>2448</v>
       </c>
       <c r="E121" t="n">
         <v>15</v>
@@ -3456,14 +3458,14 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>13.08.2020</t>
+          <t>14.08.2020</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D122" t="n">
-        <v>2379</v>
+        <v>2412</v>
       </c>
       <c r="E122" t="n">
         <v>15</v>
@@ -3479,14 +3481,14 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>12.08.2020</t>
+          <t>13.08.2020</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D123" t="n">
-        <v>2324</v>
+        <v>2379</v>
       </c>
       <c r="E123" t="n">
         <v>15</v>
@@ -3502,14 +3504,14 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>11.08.2020</t>
+          <t>12.08.2020</t>
         </is>
       </c>
       <c r="C124" t="n">
         <v>244</v>
       </c>
       <c r="D124" t="n">
-        <v>2281</v>
+        <v>2324</v>
       </c>
       <c r="E124" t="n">
         <v>15</v>
@@ -3525,14 +3527,14 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>10.08.2020</t>
+          <t>11.08.2020</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D125" t="n">
-        <v>2250</v>
+        <v>2281</v>
       </c>
       <c r="E125" t="n">
         <v>15</v>
@@ -3548,17 +3550,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>07.08.2020</t>
+          <t>10.08.2020</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D126" t="n">
-        <v>2174</v>
+        <v>2250</v>
       </c>
       <c r="E126" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -3571,17 +3573,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>06.08.2020</t>
+          <t>07.08.2020</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D127" t="n">
-        <v>223</v>
+        <v>2174</v>
       </c>
       <c r="E127" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -3594,14 +3596,14 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>05.08.2020</t>
+          <t>06.08.2020</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D128" t="n">
-        <v>2088</v>
+        <v>223</v>
       </c>
       <c r="E128" t="n">
         <v>12</v>
@@ -3617,14 +3619,14 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>04.08.2020</t>
+          <t>05.08.2020</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D129" t="n">
-        <v>2057</v>
+        <v>2088</v>
       </c>
       <c r="E129" t="n">
         <v>12</v>
@@ -3640,14 +3642,14 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>03.08.2020</t>
+          <t>04.08.2020</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D130" t="n">
-        <v>1957</v>
+        <v>2057</v>
       </c>
       <c r="E130" t="n">
         <v>12</v>
@@ -3663,17 +3665,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>31.07.2020</t>
+          <t>03.08.2020</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D131" t="n">
-        <v>1874</v>
+        <v>1957</v>
       </c>
       <c r="E131" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -3686,14 +3688,14 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>30.07.2020</t>
+          <t>31.07.2020</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D132" t="n">
-        <v>1839</v>
+        <v>1874</v>
       </c>
       <c r="E132" t="n">
         <v>11</v>
@@ -3709,14 +3711,14 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>29.07.2020</t>
+          <t>30.07.2020</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D133" t="n">
-        <v>1214</v>
+        <v>1839</v>
       </c>
       <c r="E133" t="n">
         <v>11</v>
@@ -3732,17 +3734,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>28.07.2020</t>
+          <t>29.07.2020</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="D134" t="n">
-        <v>1783</v>
+        <v>1214</v>
       </c>
       <c r="E134" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -3755,14 +3757,14 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>27.07.2020</t>
+          <t>28.07.2020</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D135" t="n">
-        <v>1738</v>
+        <v>1783</v>
       </c>
       <c r="E135" t="n">
         <v>9</v>
@@ -3778,14 +3780,14 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>24.07.2020</t>
+          <t>27.07.2020</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D136" t="n">
-        <v>1667</v>
+        <v>1738</v>
       </c>
       <c r="E136" t="n">
         <v>9</v>
@@ -3801,17 +3803,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>23.07.2020</t>
+          <t>24.07.2020</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D137" t="n">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="E137" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -3824,17 +3826,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>22.07.2020</t>
+          <t>23.07.2020</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D138" t="n">
-        <v>1631</v>
+        <v>1657</v>
       </c>
       <c r="E138" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -3847,14 +3849,14 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>21.07.2020</t>
+          <t>22.07.2020</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D139" t="n">
-        <v>1595</v>
+        <v>1631</v>
       </c>
       <c r="E139" t="n">
         <v>6</v>
@@ -3870,17 +3872,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>17.07.2020</t>
+          <t>21.07.2020</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D140" t="n">
-        <v>1505</v>
+        <v>1595</v>
       </c>
       <c r="E140" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -3893,14 +3895,14 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>15.07.2020</t>
+          <t>17.07.2020</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D141" t="n">
-        <v>1444</v>
+        <v>1505</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -3916,14 +3918,14 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>13.07.2020</t>
+          <t>15.07.2020</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D142" t="n">
-        <v>1367</v>
+        <v>1444</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -3939,14 +3941,14 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>10.07.2020</t>
+          <t>13.07.2020</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D143" t="n">
-        <v>1346</v>
+        <v>1367</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -3962,14 +3964,14 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>09.07.2020</t>
+          <t>10.07.2020</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D144" t="n">
-        <v>1324</v>
+        <v>1346</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -3985,14 +3987,14 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>08.07.2020</t>
+          <t>09.07.2020</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D145" t="n">
-        <v>1281</v>
+        <v>1324</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -4008,14 +4010,14 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>07.07.2020</t>
+          <t>08.07.2020</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D146" t="n">
-        <v>1236</v>
+        <v>1281</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -4031,14 +4033,14 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>06.07.2020</t>
+          <t>07.07.2020</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D147" t="n">
-        <v>1182</v>
+        <v>1236</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -4054,14 +4056,14 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>03.07.2020</t>
+          <t>06.07.2020</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D148" t="n">
-        <v>1156</v>
+        <v>1182</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -4077,14 +4079,14 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>02.07.2020</t>
+          <t>03.07.2020</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D149" t="n">
-        <v>1134</v>
+        <v>1156</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -4100,14 +4102,14 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>01.07.2020</t>
+          <t>02.07.2020</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D150" t="n">
-        <v>1120</v>
+        <v>1134</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -4123,14 +4125,14 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>30.06.2020</t>
+          <t>01.07.2020</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D151" t="n">
-        <v>1097</v>
+        <v>1120</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -4146,14 +4148,14 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>29.06.2020</t>
+          <t>30.06.2020</t>
         </is>
       </c>
       <c r="C152" t="n">
         <v>27</v>
       </c>
       <c r="D152" t="n">
-        <v>1077</v>
+        <v>1097</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -4169,14 +4171,14 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>26.06.2020</t>
+          <t>29.06.2020</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D153" t="n">
-        <v>1061</v>
+        <v>1077</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -4192,14 +4194,14 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>25.06.2020</t>
+          <t>26.06.2020</t>
         </is>
       </c>
       <c r="C154" t="n">
         <v>26</v>
       </c>
       <c r="D154" t="n">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -4215,14 +4217,14 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>24.06.2020</t>
+          <t>25.06.2020</t>
         </is>
       </c>
       <c r="C155" t="n">
         <v>26</v>
       </c>
       <c r="D155" t="n">
-        <v>1028</v>
+        <v>1054</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -4238,14 +4240,14 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>23.06.2020</t>
+          <t>24.06.2020</t>
         </is>
       </c>
       <c r="C156" t="n">
         <v>26</v>
       </c>
       <c r="D156" t="n">
-        <v>994</v>
+        <v>1028</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -4261,14 +4263,14 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>22.06.2020</t>
+          <t>23.06.2020</t>
         </is>
       </c>
       <c r="C157" t="n">
         <v>26</v>
       </c>
       <c r="D157" t="n">
-        <v>966</v>
+        <v>994</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -4284,17 +4286,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>19.06.2020</t>
+          <t>22.06.2020</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D158" t="n">
-        <v>955</v>
+        <v>966</v>
       </c>
       <c r="E158" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -4307,14 +4309,14 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>18.06.2020</t>
+          <t>19.06.2020</t>
         </is>
       </c>
       <c r="C159" t="n">
         <v>20</v>
       </c>
       <c r="D159" t="n">
-        <v>940</v>
+        <v>955</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -4330,14 +4332,14 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>17.06.2020</t>
+          <t>18.06.2020</t>
         </is>
       </c>
       <c r="C160" t="n">
         <v>20</v>
       </c>
       <c r="D160" t="n">
-        <v>919</v>
+        <v>940</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -4353,14 +4355,14 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16.06.2020</t>
+          <t>17.06.2020</t>
         </is>
       </c>
       <c r="C161" t="n">
         <v>20</v>
       </c>
       <c r="D161" t="n">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -4376,14 +4378,14 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>15.06.2020</t>
+          <t>16.06.2020</t>
         </is>
       </c>
       <c r="C162" t="n">
         <v>20</v>
       </c>
       <c r="D162" t="n">
-        <v>893</v>
+        <v>913</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -4399,14 +4401,14 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>12.06.2020</t>
+          <t>15.06.2020</t>
         </is>
       </c>
       <c r="C163" t="n">
         <v>20</v>
       </c>
       <c r="D163" t="n">
-        <v>876</v>
+        <v>893</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -4422,14 +4424,14 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>11.06.2020</t>
+          <t>12.06.2020</t>
         </is>
       </c>
       <c r="C164" t="n">
         <v>20</v>
       </c>
       <c r="D164" t="n">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -4445,14 +4447,14 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>10.06.2020</t>
+          <t>11.06.2020</t>
         </is>
       </c>
       <c r="C165" t="n">
         <v>20</v>
       </c>
       <c r="D165" t="n">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -4468,14 +4470,14 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>09.06.2020</t>
+          <t>10.06.2020</t>
         </is>
       </c>
       <c r="C166" t="n">
         <v>20</v>
       </c>
       <c r="D166" t="n">
-        <v>859</v>
+        <v>868</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -4491,14 +4493,14 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>08.06.2020</t>
+          <t>09.06.2020</t>
         </is>
       </c>
       <c r="C167" t="n">
         <v>20</v>
       </c>
       <c r="D167" t="n">
-        <v>844</v>
+        <v>859</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -4514,14 +4516,14 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>05.06.2020</t>
+          <t>08.06.2020</t>
         </is>
       </c>
       <c r="C168" t="n">
         <v>20</v>
       </c>
       <c r="D168" t="n">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -4537,14 +4539,14 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>04.06.2020</t>
+          <t>05.06.2020</t>
         </is>
       </c>
       <c r="C169" t="n">
         <v>20</v>
       </c>
       <c r="D169" t="n">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -4560,14 +4562,14 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>03.06.2020</t>
+          <t>04.06.2020</t>
         </is>
       </c>
       <c r="C170" t="n">
         <v>20</v>
       </c>
       <c r="D170" t="n">
-        <v>813</v>
+        <v>829</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -4583,14 +4585,14 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>02.06.2020</t>
+          <t>03.06.2020</t>
         </is>
       </c>
       <c r="C171" t="n">
         <v>20</v>
       </c>
       <c r="D171" t="n">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -4606,14 +4608,14 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>01.06.2020</t>
+          <t>02.06.2020</t>
         </is>
       </c>
       <c r="C172" t="n">
         <v>20</v>
       </c>
       <c r="D172" t="n">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -4629,7 +4631,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>31.05.2020</t>
+          <t>01.06.2020</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -4652,7 +4654,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>30.05.2020</t>
+          <t>31.05.2020</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -4675,14 +4677,14 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>29.05.2020</t>
+          <t>30.05.2020</t>
         </is>
       </c>
       <c r="C175" t="n">
         <v>20</v>
       </c>
       <c r="D175" t="n">
-        <v>766</v>
+        <v>784</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -4698,14 +4700,14 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>28.05.2020</t>
+          <t>29.05.2020</t>
         </is>
       </c>
       <c r="C176" t="n">
         <v>20</v>
       </c>
       <c r="D176" t="n">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -4721,14 +4723,14 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>27.05.2020</t>
+          <t>28.05.2020</t>
         </is>
       </c>
       <c r="C177" t="n">
         <v>20</v>
       </c>
       <c r="D177" t="n">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -4744,14 +4746,14 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>26.05.2020</t>
+          <t>27.05.2020</t>
         </is>
       </c>
       <c r="C178" t="n">
         <v>20</v>
       </c>
       <c r="D178" t="n">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -4767,14 +4769,14 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>25.05.2020</t>
+          <t>26.05.2020</t>
         </is>
       </c>
       <c r="C179" t="n">
         <v>20</v>
       </c>
       <c r="D179" t="n">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -4790,7 +4792,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>24.05.2020</t>
+          <t>25.05.2020</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -4813,14 +4815,14 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>23.05.2020</t>
+          <t>24.05.2020</t>
         </is>
       </c>
       <c r="C181" t="n">
         <v>20</v>
       </c>
       <c r="D181" t="n">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -4836,14 +4838,14 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>22.05.2020</t>
+          <t>23.05.2020</t>
         </is>
       </c>
       <c r="C182" t="n">
         <v>20</v>
       </c>
       <c r="D182" t="n">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -4859,24 +4861,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>21.05.2020</t>
+          <t>22.05.2020</t>
         </is>
       </c>
       <c r="C183" t="n">
         <v>20</v>
       </c>
       <c r="D183" t="n">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="E183" t="n">
-        <v>437</v>
+        <v>4</v>
       </c>
       <c r="F183" t="n">
-        <v>4</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -4884,17 +4884,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>20.05.2020</t>
+          <t>21.05.2020</t>
         </is>
       </c>
       <c r="C184" t="n">
         <v>20</v>
       </c>
       <c r="D184" t="n">
-        <v>691</v>
+        <v>711</v>
       </c>
       <c r="E184" t="n">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F184" t="n">
         <v>4</v>
@@ -4909,17 +4909,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>19.05.2020</t>
+          <t>20.05.2020</t>
         </is>
       </c>
       <c r="C185" t="n">
         <v>20</v>
       </c>
       <c r="D185" t="n">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="E185" t="n">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="F185" t="n">
         <v>4</v>
@@ -4934,17 +4934,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>18.05.2020</t>
+          <t>19.05.2020</t>
         </is>
       </c>
       <c r="C186" t="n">
         <v>20</v>
       </c>
       <c r="D186" t="n">
-        <v>649</v>
+        <v>676</v>
       </c>
       <c r="E186" t="n">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="F186" t="n">
         <v>4</v>
@@ -4959,17 +4959,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>17.05.2020</t>
+          <t>18.05.2020</t>
         </is>
       </c>
       <c r="C187" t="n">
         <v>20</v>
       </c>
       <c r="D187" t="n">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="E187" t="n">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="F187" t="n">
         <v>4</v>
@@ -4984,17 +4984,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16.05.2020</t>
+          <t>17.05.2020</t>
         </is>
       </c>
       <c r="C188" t="n">
         <v>20</v>
       </c>
       <c r="D188" t="n">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="E188" t="n">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="F188" t="n">
         <v>4</v>
@@ -5009,17 +5009,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>15.05.2020</t>
+          <t>16.05.2020</t>
         </is>
       </c>
       <c r="C189" t="n">
         <v>20</v>
       </c>
       <c r="D189" t="n">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="E189" t="n">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="F189" t="n">
         <v>4</v>
@@ -5034,17 +5034,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>14.05.2020</t>
+          <t>15.05.2020</t>
         </is>
       </c>
       <c r="C190" t="n">
         <v>20</v>
       </c>
       <c r="D190" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E190" t="n">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="F190" t="n">
         <v>4</v>
@@ -5059,17 +5059,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>13.05.2020</t>
+          <t>14.05.2020</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D191" t="n">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="E191" t="n">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="F191" t="n">
         <v>4</v>
@@ -5084,17 +5084,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>12.05.2020</t>
+          <t>13.05.2020</t>
         </is>
       </c>
       <c r="C192" t="n">
         <v>19</v>
       </c>
       <c r="D192" t="n">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="E192" t="n">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F192" t="n">
         <v>4</v>
@@ -5109,17 +5109,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>11.05.2020</t>
+          <t>12.05.2020</t>
         </is>
       </c>
       <c r="C193" t="n">
         <v>19</v>
       </c>
       <c r="D193" t="n">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="E193" t="n">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="F193" t="n">
         <v>4</v>
@@ -5134,20 +5134,20 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>10.05.2020</t>
+          <t>11.05.2020</t>
         </is>
       </c>
       <c r="C194" t="n">
         <v>19</v>
       </c>
       <c r="D194" t="n">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="E194" t="n">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="F194" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
@@ -5159,17 +5159,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>09.05.2020</t>
+          <t>10.05.2020</t>
         </is>
       </c>
       <c r="C195" t="n">
         <v>19</v>
       </c>
       <c r="D195" t="n">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E195" t="n">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="F195" t="n">
         <v>3</v>
@@ -5184,17 +5184,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>08.05.2020</t>
+          <t>09.05.2020</t>
         </is>
       </c>
       <c r="C196" t="n">
         <v>19</v>
       </c>
       <c r="D196" t="n">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="E196" t="n">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="F196" t="n">
         <v>3</v>
@@ -5209,17 +5209,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>07.05.2020</t>
+          <t>08.05.2020</t>
         </is>
       </c>
       <c r="C197" t="n">
         <v>19</v>
       </c>
       <c r="D197" t="n">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="E197" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F197" t="n">
         <v>3</v>
@@ -5234,17 +5234,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>06.05.2020</t>
+          <t>07.05.2020</t>
         </is>
       </c>
       <c r="C198" t="n">
         <v>19</v>
       </c>
       <c r="D198" t="n">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E198" t="n">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F198" t="n">
         <v>3</v>
@@ -5259,17 +5259,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>05.05.2020</t>
+          <t>06.05.2020</t>
         </is>
       </c>
       <c r="C199" t="n">
         <v>19</v>
       </c>
       <c r="D199" t="n">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="E199" t="n">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F199" t="n">
         <v>3</v>
@@ -5284,17 +5284,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>04.05.2020</t>
+          <t>05.05.2020</t>
         </is>
       </c>
       <c r="C200" t="n">
         <v>19</v>
       </c>
       <c r="D200" t="n">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="E200" t="n">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F200" t="n">
         <v>3</v>
@@ -5309,17 +5309,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>03.05.2020</t>
+          <t>04.05.2020</t>
         </is>
       </c>
       <c r="C201" t="n">
         <v>19</v>
       </c>
       <c r="D201" t="n">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="E201" t="n">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F201" t="n">
         <v>3</v>
@@ -5334,20 +5334,20 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>02.05.2020</t>
+          <t>03.05.2020</t>
         </is>
       </c>
       <c r="C202" t="n">
         <v>19</v>
       </c>
       <c r="D202" t="n">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="E202" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
@@ -5359,17 +5359,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>01.05.2020</t>
+          <t>02.05.2020</t>
         </is>
       </c>
       <c r="C203" t="n">
         <v>19</v>
       </c>
       <c r="D203" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E203" t="n">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="F203" t="n">
         <v>2</v>
@@ -5384,17 +5384,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>30.04.2020</t>
+          <t>01.05.2020</t>
         </is>
       </c>
       <c r="C204" t="n">
         <v>19</v>
       </c>
       <c r="D204" t="n">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E204" t="n">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="F204" t="n">
         <v>2</v>
@@ -5409,17 +5409,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>29.04.2020</t>
+          <t>30.04.2020</t>
         </is>
       </c>
       <c r="C205" t="n">
         <v>19</v>
       </c>
       <c r="D205" t="n">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="E205" t="n">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F205" t="n">
         <v>2</v>
@@ -5434,17 +5434,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>28.04.2020</t>
+          <t>29.04.2020</t>
         </is>
       </c>
       <c r="C206" t="n">
         <v>19</v>
       </c>
       <c r="D206" t="n">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="E206" t="n">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="F206" t="n">
         <v>2</v>
@@ -5459,17 +5459,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>27.04.2020</t>
+          <t>28.04.2020</t>
         </is>
       </c>
       <c r="C207" t="n">
         <v>19</v>
       </c>
       <c r="D207" t="n">
-        <v>380</v>
+        <v>438</v>
       </c>
       <c r="E207" t="n">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="F207" t="n">
         <v>2</v>
@@ -5484,7 +5484,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>26.04.2020</t>
+          <t>27.04.2020</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -5494,7 +5494,7 @@
         <v>380</v>
       </c>
       <c r="E208" t="n">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="F208" t="n">
         <v>2</v>
@@ -5509,17 +5509,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>25.04.2020</t>
+          <t>26.04.2020</t>
         </is>
       </c>
       <c r="C209" t="n">
         <v>19</v>
       </c>
       <c r="D209" t="n">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E209" t="n">
-        <v>596</v>
+        <v>541</v>
       </c>
       <c r="F209" t="n">
         <v>2</v>
@@ -5534,17 +5534,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>24.04.2020</t>
+          <t>25.04.2020</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D210" t="n">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="E210" t="n">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="F210" t="n">
         <v>2</v>
@@ -5559,17 +5559,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>23.04.2020</t>
+          <t>24.04.2020</t>
         </is>
       </c>
       <c r="C211" t="n">
         <v>18</v>
       </c>
       <c r="D211" t="n">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="E211" t="n">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="F211" t="n">
         <v>2</v>
@@ -5584,17 +5584,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>22.04.2020</t>
+          <t>23.04.2020</t>
         </is>
       </c>
       <c r="C212" t="n">
         <v>18</v>
       </c>
       <c r="D212" t="n">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="E212" t="n">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="F212" t="n">
         <v>2</v>
@@ -5609,17 +5609,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>21.04.2020</t>
+          <t>22.04.2020</t>
         </is>
       </c>
       <c r="C213" t="n">
         <v>18</v>
       </c>
       <c r="D213" t="n">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="E213" t="n">
-        <v>726</v>
+        <v>636</v>
       </c>
       <c r="F213" t="n">
         <v>2</v>
@@ -5634,17 +5634,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>20.04.2020</t>
+          <t>21.04.2020</t>
         </is>
       </c>
       <c r="C214" t="n">
         <v>18</v>
       </c>
       <c r="D214" t="n">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="E214" t="n">
-        <v>791</v>
+        <v>726</v>
       </c>
       <c r="F214" t="n">
         <v>2</v>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>19.04.2020</t>
+          <t>20.04.2020</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -5669,7 +5669,7 @@
         <v>287</v>
       </c>
       <c r="E215" t="n">
-        <v>842</v>
+        <v>791</v>
       </c>
       <c r="F215" t="n">
         <v>2</v>
@@ -5684,17 +5684,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>18.04.2020</t>
+          <t>19.04.2020</t>
         </is>
       </c>
       <c r="C216" t="n">
         <v>18</v>
       </c>
       <c r="D216" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E216" t="n">
-        <v>888</v>
+        <v>842</v>
       </c>
       <c r="F216" t="n">
         <v>2</v>
@@ -5709,17 +5709,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>17.04.2020</t>
+          <t>18.04.2020</t>
         </is>
       </c>
       <c r="C217" t="n">
         <v>18</v>
       </c>
       <c r="D217" t="n">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="E217" t="n">
-        <v>926</v>
+        <v>888</v>
       </c>
       <c r="F217" t="n">
         <v>2</v>
@@ -5734,17 +5734,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>16.04.2020</t>
+          <t>17.04.2020</t>
         </is>
       </c>
       <c r="C218" t="n">
         <v>18</v>
       </c>
       <c r="D218" t="n">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="E218" t="n">
-        <v>1053</v>
+        <v>926</v>
       </c>
       <c r="F218" t="n">
         <v>2</v>
@@ -5759,17 +5759,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>15.04.2020</t>
+          <t>16.04.2020</t>
         </is>
       </c>
       <c r="C219" t="n">
         <v>18</v>
       </c>
       <c r="D219" t="n">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="E219" t="n">
-        <v>1186</v>
+        <v>1053</v>
       </c>
       <c r="F219" t="n">
         <v>2</v>
@@ -5784,17 +5784,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>14.04.2020</t>
+          <t>15.04.2020</t>
         </is>
       </c>
       <c r="C220" t="n">
         <v>18</v>
       </c>
       <c r="D220" t="n">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="E220" t="n">
-        <v>1279</v>
+        <v>1186</v>
       </c>
       <c r="F220" t="n">
         <v>2</v>
@@ -5809,22 +5809,24 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>13.04.2020</t>
+          <t>14.04.2020</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D221" t="n">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="E221" t="n">
-        <v>1374</v>
+        <v>1279</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
-      </c>
-      <c r="G221" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5832,7 +5834,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>12.04.2020</t>
+          <t>13.04.2020</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -5842,7 +5844,7 @@
         <v>215</v>
       </c>
       <c r="E222" t="n">
-        <v>1369</v>
+        <v>1374</v>
       </c>
       <c r="F222" t="n">
         <v>0</v>
@@ -5855,17 +5857,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>11.04.2020</t>
+          <t>12.04.2020</t>
         </is>
       </c>
       <c r="C223" t="n">
         <v>17</v>
       </c>
       <c r="D223" t="n">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E223" t="n">
-        <v>1364</v>
+        <v>1369</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
@@ -5878,17 +5880,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>10.04.2020</t>
+          <t>11.04.2020</t>
         </is>
       </c>
       <c r="C224" t="n">
         <v>17</v>
       </c>
       <c r="D224" t="n">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E224" t="n">
-        <v>1345</v>
+        <v>1364</v>
       </c>
       <c r="F224" t="n">
         <v>0</v>
@@ -5901,17 +5903,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>09.04.2020</t>
+          <t>10.04.2020</t>
         </is>
       </c>
       <c r="C225" t="n">
         <v>17</v>
       </c>
       <c r="D225" t="n">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="E225" t="n">
-        <v>1340</v>
+        <v>1345</v>
       </c>
       <c r="F225" t="n">
         <v>0</v>
@@ -5924,17 +5926,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>08.04.2020</t>
+          <t>09.04.2020</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D226" t="n">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="E226" t="n">
-        <v>1315</v>
+        <v>1340</v>
       </c>
       <c r="F226" t="n">
         <v>0</v>
@@ -5947,17 +5949,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>07.04.2020</t>
+          <t>08.04.2020</t>
         </is>
       </c>
       <c r="C227" t="n">
         <v>16</v>
       </c>
       <c r="D227" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E227" t="n">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -5970,17 +5972,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>06.04.2020</t>
+          <t>07.04.2020</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D228" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E228" t="n">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -5993,17 +5995,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>05.04.2020</t>
+          <t>06.04.2020</t>
         </is>
       </c>
       <c r="C229" t="n">
         <v>13</v>
       </c>
       <c r="D229" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E229" t="n">
-        <v>1297</v>
+        <v>1317</v>
       </c>
       <c r="F229" t="n">
         <v>0</v>
@@ -6016,17 +6018,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>04.04.2020</t>
+          <t>05.04.2020</t>
         </is>
       </c>
       <c r="C230" t="n">
         <v>13</v>
       </c>
       <c r="D230" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E230" t="n">
-        <v>1273</v>
+        <v>1297</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -6039,7 +6041,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>03.04.2020</t>
+          <t>04.04.2020</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -6049,7 +6051,7 @@
         <v>100</v>
       </c>
       <c r="E231" t="n">
-        <v>1219</v>
+        <v>1273</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
@@ -6062,22 +6064,45 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
+          <t>03.04.2020</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>13</v>
+      </c>
+      <c r="D232" t="n">
+        <v>100</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1219</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
           <t>02.04.2020</t>
         </is>
       </c>
-      <c r="C232" t="n">
+      <c r="C233" t="n">
         <v>5</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D233" t="n">
         <v>87</v>
       </c>
-      <c r="E232" t="n">
+      <c r="E233" t="n">
         <v>1196</v>
       </c>
-      <c r="F232" t="n">
-        <v>0</v>
-      </c>
-      <c r="G232" t="inlineStr"/>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataSet/rawData/bd.xlsx
+++ b/dataSet/rawData/bd.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G233"/>
+  <dimension ref="A1:H233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>Broj aktivnih slučajeva</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Broj osoba pod nadzorom</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,6 +493,9 @@
         <v>1429</v>
       </c>
       <c r="G2" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -513,6 +521,9 @@
         <v>1393</v>
       </c>
       <c r="G3" t="n">
+        <v>1104</v>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,6 +549,9 @@
         <v>1376</v>
       </c>
       <c r="G4" t="n">
+        <v>1089</v>
+      </c>
+      <c r="H4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -563,6 +577,9 @@
         <v>1375</v>
       </c>
       <c r="G5" t="n">
+        <v>1088</v>
+      </c>
+      <c r="H5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -588,6 +605,9 @@
         <v>1328</v>
       </c>
       <c r="G6" t="n">
+        <v>1123</v>
+      </c>
+      <c r="H6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -613,6 +633,9 @@
         <v>1314</v>
       </c>
       <c r="G7" t="n">
+        <v>1127</v>
+      </c>
+      <c r="H7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -638,6 +661,9 @@
         <v>1296</v>
       </c>
       <c r="G8" t="n">
+        <v>1117</v>
+      </c>
+      <c r="H8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -663,6 +689,9 @@
         <v>1282</v>
       </c>
       <c r="G9" t="n">
+        <v>1111</v>
+      </c>
+      <c r="H9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -688,6 +717,9 @@
         <v>1276</v>
       </c>
       <c r="G10" t="n">
+        <v>1102</v>
+      </c>
+      <c r="H10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -713,6 +745,9 @@
         <v>1270</v>
       </c>
       <c r="G11" t="n">
+        <v>1079</v>
+      </c>
+      <c r="H11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -738,6 +773,9 @@
         <v>1260</v>
       </c>
       <c r="G12" t="n">
+        <v>1088</v>
+      </c>
+      <c r="H12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -763,6 +801,9 @@
         <v>1255</v>
       </c>
       <c r="G13" t="n">
+        <v>1080</v>
+      </c>
+      <c r="H13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -788,6 +829,9 @@
         <v>1247</v>
       </c>
       <c r="G14" t="n">
+        <v>1066</v>
+      </c>
+      <c r="H14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -813,6 +857,9 @@
         <v>1227</v>
       </c>
       <c r="G15" t="n">
+        <v>1048</v>
+      </c>
+      <c r="H15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -838,6 +885,9 @@
         <v>1205</v>
       </c>
       <c r="G16" t="n">
+        <v>1048</v>
+      </c>
+      <c r="H16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -863,6 +913,9 @@
         <v>1183</v>
       </c>
       <c r="G17" t="n">
+        <v>1028</v>
+      </c>
+      <c r="H17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,6 +941,9 @@
         <v>1174</v>
       </c>
       <c r="G18" t="n">
+        <v>986</v>
+      </c>
+      <c r="H18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -913,6 +969,9 @@
         <v>1152</v>
       </c>
       <c r="G19" t="n">
+        <v>1005</v>
+      </c>
+      <c r="H19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -938,6 +997,9 @@
         <v>1136</v>
       </c>
       <c r="G20" t="n">
+        <v>1022</v>
+      </c>
+      <c r="H20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -963,6 +1025,9 @@
         <v>1058</v>
       </c>
       <c r="G21" t="n">
+        <v>1073</v>
+      </c>
+      <c r="H21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -988,6 +1053,9 @@
         <v>1024</v>
       </c>
       <c r="G22" t="n">
+        <v>1081</v>
+      </c>
+      <c r="H22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1013,6 +1081,9 @@
         <v>979</v>
       </c>
       <c r="G23" t="n">
+        <v>1084</v>
+      </c>
+      <c r="H23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1038,6 +1109,9 @@
         <v>964</v>
       </c>
       <c r="G24" t="n">
+        <v>1062</v>
+      </c>
+      <c r="H24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1063,6 +1137,9 @@
         <v>942</v>
       </c>
       <c r="G25" t="n">
+        <v>1023</v>
+      </c>
+      <c r="H25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1088,6 +1165,9 @@
         <v>923</v>
       </c>
       <c r="G26" t="n">
+        <v>1046</v>
+      </c>
+      <c r="H26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1113,6 +1193,9 @@
         <v>922</v>
       </c>
       <c r="G27" t="n">
+        <v>1034</v>
+      </c>
+      <c r="H27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1138,6 +1221,9 @@
         <v>916</v>
       </c>
       <c r="G28" t="n">
+        <v>1010</v>
+      </c>
+      <c r="H28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1163,6 +1249,9 @@
         <v>883</v>
       </c>
       <c r="G29" t="n">
+        <v>1005</v>
+      </c>
+      <c r="H29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,6 +1277,9 @@
         <v>869</v>
       </c>
       <c r="G30" t="n">
+        <v>985</v>
+      </c>
+      <c r="H30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1213,6 +1305,9 @@
         <v>840</v>
       </c>
       <c r="G31" t="n">
+        <v>968</v>
+      </c>
+      <c r="H31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1238,6 +1333,9 @@
         <v>805</v>
       </c>
       <c r="G32" t="n">
+        <v>935</v>
+      </c>
+      <c r="H32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1263,6 +1361,9 @@
         <v>755</v>
       </c>
       <c r="G33" t="n">
+        <v>978</v>
+      </c>
+      <c r="H33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1288,6 +1389,9 @@
         <v>708</v>
       </c>
       <c r="G34" t="n">
+        <v>1020</v>
+      </c>
+      <c r="H34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1313,6 +1417,9 @@
         <v>703</v>
       </c>
       <c r="G35" t="n">
+        <v>982</v>
+      </c>
+      <c r="H35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1338,6 +1445,9 @@
         <v>681</v>
       </c>
       <c r="G36" t="n">
+        <v>952</v>
+      </c>
+      <c r="H36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1363,6 +1473,9 @@
         <v>652</v>
       </c>
       <c r="G37" t="n">
+        <v>926</v>
+      </c>
+      <c r="H37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1388,6 +1501,9 @@
         <v>631</v>
       </c>
       <c r="G38" t="n">
+        <v>865</v>
+      </c>
+      <c r="H38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1413,6 +1529,9 @@
         <v>612</v>
       </c>
       <c r="G39" t="n">
+        <v>830</v>
+      </c>
+      <c r="H39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1438,6 +1557,9 @@
         <v>606</v>
       </c>
       <c r="G40" t="n">
+        <v>835</v>
+      </c>
+      <c r="H40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1463,6 +1585,9 @@
         <v>547</v>
       </c>
       <c r="G41" t="n">
+        <v>888</v>
+      </c>
+      <c r="H41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1488,6 +1613,9 @@
         <v>513</v>
       </c>
       <c r="G42" t="n">
+        <v>854</v>
+      </c>
+      <c r="H42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1513,6 +1641,9 @@
         <v>491</v>
       </c>
       <c r="G43" t="n">
+        <v>821</v>
+      </c>
+      <c r="H43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,6 +1669,9 @@
         <v>491</v>
       </c>
       <c r="G44" t="n">
+        <v>739</v>
+      </c>
+      <c r="H44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1563,6 +1697,9 @@
         <v>491</v>
       </c>
       <c r="G45" t="n">
+        <v>645</v>
+      </c>
+      <c r="H45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1588,6 +1725,9 @@
         <v>480</v>
       </c>
       <c r="G46" t="n">
+        <v>608</v>
+      </c>
+      <c r="H46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1613,6 +1753,9 @@
         <v>474</v>
       </c>
       <c r="G47" t="n">
+        <v>609</v>
+      </c>
+      <c r="H47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1638,6 +1781,9 @@
         <v>461</v>
       </c>
       <c r="G48" t="n">
+        <v>624</v>
+      </c>
+      <c r="H48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1663,6 +1809,9 @@
         <v>423</v>
       </c>
       <c r="G49" t="n">
+        <v>611</v>
+      </c>
+      <c r="H49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1688,6 +1837,9 @@
         <v>401</v>
       </c>
       <c r="G50" t="n">
+        <v>583</v>
+      </c>
+      <c r="H50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1713,6 +1865,9 @@
         <v>370</v>
       </c>
       <c r="G51" t="n">
+        <v>524</v>
+      </c>
+      <c r="H51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1738,6 +1893,9 @@
         <v>357</v>
       </c>
       <c r="G52" t="n">
+        <v>446</v>
+      </c>
+      <c r="H52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1763,6 +1921,9 @@
         <v>335</v>
       </c>
       <c r="G53" t="n">
+        <v>462</v>
+      </c>
+      <c r="H53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1788,6 +1949,9 @@
         <v>330</v>
       </c>
       <c r="G54" t="n">
+        <v>464</v>
+      </c>
+      <c r="H54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1813,6 +1977,9 @@
         <v>325</v>
       </c>
       <c r="G55" t="n">
+        <v>461</v>
+      </c>
+      <c r="H55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,6 +2005,9 @@
         <v>324</v>
       </c>
       <c r="G56" t="n">
+        <v>420</v>
+      </c>
+      <c r="H56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1863,6 +2033,9 @@
         <v>323</v>
       </c>
       <c r="G57" t="n">
+        <v>387</v>
+      </c>
+      <c r="H57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1888,6 +2061,9 @@
         <v>321</v>
       </c>
       <c r="G58" t="n">
+        <v>367</v>
+      </c>
+      <c r="H58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1913,6 +2089,9 @@
         <v>318</v>
       </c>
       <c r="G59" t="n">
+        <v>330</v>
+      </c>
+      <c r="H59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1938,6 +2117,9 @@
         <v>318</v>
       </c>
       <c r="G60" t="n">
+        <v>234</v>
+      </c>
+      <c r="H60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1963,6 +2145,9 @@
         <v>314</v>
       </c>
       <c r="G61" t="n">
+        <v>236</v>
+      </c>
+      <c r="H61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1988,6 +2173,9 @@
         <v>313</v>
       </c>
       <c r="G62" t="n">
+        <v>234</v>
+      </c>
+      <c r="H62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2013,6 +2201,9 @@
         <v>310</v>
       </c>
       <c r="G63" t="n">
+        <v>196</v>
+      </c>
+      <c r="H63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2038,6 +2229,9 @@
         <v>303</v>
       </c>
       <c r="G64" t="n">
+        <v>154</v>
+      </c>
+      <c r="H64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2063,6 +2257,9 @@
         <v>299</v>
       </c>
       <c r="G65" t="n">
+        <v>124</v>
+      </c>
+      <c r="H65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2088,6 +2285,9 @@
         <v>299</v>
       </c>
       <c r="G66" t="n">
+        <v>102</v>
+      </c>
+      <c r="H66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2113,6 +2313,9 @@
         <v>298</v>
       </c>
       <c r="G67" t="n">
+        <v>83</v>
+      </c>
+      <c r="H67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2138,6 +2341,9 @@
         <v>298</v>
       </c>
       <c r="G68" t="n">
+        <v>82</v>
+      </c>
+      <c r="H68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2163,6 +2369,9 @@
         <v>298</v>
       </c>
       <c r="G69" t="n">
+        <v>80</v>
+      </c>
+      <c r="H69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,6 +2397,9 @@
         <v>298</v>
       </c>
       <c r="G70" t="n">
+        <v>66</v>
+      </c>
+      <c r="H70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2213,6 +2425,9 @@
         <v>296</v>
       </c>
       <c r="G71" t="n">
+        <v>58</v>
+      </c>
+      <c r="H71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2238,6 +2453,9 @@
         <v>296</v>
       </c>
       <c r="G72" t="n">
+        <v>52</v>
+      </c>
+      <c r="H72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2263,6 +2481,9 @@
         <v>291</v>
       </c>
       <c r="G73" t="n">
+        <v>53</v>
+      </c>
+      <c r="H73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2288,6 +2509,9 @@
         <v>291</v>
       </c>
       <c r="G74" t="n">
+        <v>43</v>
+      </c>
+      <c r="H74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2313,6 +2537,9 @@
         <v>290</v>
       </c>
       <c r="G75" t="n">
+        <v>35</v>
+      </c>
+      <c r="H75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2338,6 +2565,9 @@
         <v>288</v>
       </c>
       <c r="G76" t="n">
+        <v>29</v>
+      </c>
+      <c r="H76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2363,6 +2593,9 @@
         <v>288</v>
       </c>
       <c r="G77" t="n">
+        <v>27</v>
+      </c>
+      <c r="H77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2388,6 +2621,9 @@
         <v>287</v>
       </c>
       <c r="G78" t="n">
+        <v>22</v>
+      </c>
+      <c r="H78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2413,6 +2649,9 @@
         <v>287</v>
       </c>
       <c r="G79" t="n">
+        <v>20</v>
+      </c>
+      <c r="H79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2438,6 +2677,9 @@
         <v>287</v>
       </c>
       <c r="G80" t="n">
+        <v>14</v>
+      </c>
+      <c r="H80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2463,6 +2705,9 @@
         <v>283</v>
       </c>
       <c r="G81" t="n">
+        <v>16</v>
+      </c>
+      <c r="H81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,6 +2733,9 @@
         <v>283</v>
       </c>
       <c r="G82" t="n">
+        <v>14</v>
+      </c>
+      <c r="H82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2513,6 +2761,9 @@
         <v>283</v>
       </c>
       <c r="G83" t="n">
+        <v>13</v>
+      </c>
+      <c r="H83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2538,6 +2789,9 @@
         <v>282</v>
       </c>
       <c r="G84" t="n">
+        <v>14</v>
+      </c>
+      <c r="H84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2563,6 +2817,9 @@
         <v>282</v>
       </c>
       <c r="G85" t="n">
+        <v>12</v>
+      </c>
+      <c r="H85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2588,6 +2845,9 @@
         <v>282</v>
       </c>
       <c r="G86" t="n">
+        <v>11</v>
+      </c>
+      <c r="H86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2613,6 +2873,9 @@
         <v>282</v>
       </c>
       <c r="G87" t="n">
+        <v>11</v>
+      </c>
+      <c r="H87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2638,6 +2901,9 @@
         <v>282</v>
       </c>
       <c r="G88" t="n">
+        <v>10</v>
+      </c>
+      <c r="H88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2663,6 +2929,9 @@
         <v>282</v>
       </c>
       <c r="G89" t="n">
+        <v>10</v>
+      </c>
+      <c r="H89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2688,6 +2957,9 @@
         <v>280</v>
       </c>
       <c r="G90" t="n">
+        <v>9</v>
+      </c>
+      <c r="H90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2713,6 +2985,9 @@
         <v>279</v>
       </c>
       <c r="G91" t="n">
+        <v>7</v>
+      </c>
+      <c r="H91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2738,6 +3013,9 @@
         <v>278</v>
       </c>
       <c r="G92" t="n">
+        <v>8</v>
+      </c>
+      <c r="H92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2763,6 +3041,9 @@
         <v>277</v>
       </c>
       <c r="G93" t="n">
+        <v>8</v>
+      </c>
+      <c r="H93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2788,6 +3069,9 @@
         <v>276</v>
       </c>
       <c r="G94" t="n">
+        <v>8</v>
+      </c>
+      <c r="H94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2813,6 +3097,9 @@
         <v>276</v>
       </c>
       <c r="G95" t="n">
+        <v>8</v>
+      </c>
+      <c r="H95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,6 +3125,9 @@
         <v>276</v>
       </c>
       <c r="G96" t="n">
+        <v>8</v>
+      </c>
+      <c r="H96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2863,6 +3153,9 @@
         <v>274</v>
       </c>
       <c r="G97" t="n">
+        <v>10</v>
+      </c>
+      <c r="H97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2888,6 +3181,9 @@
         <v>272</v>
       </c>
       <c r="G98" t="n">
+        <v>12</v>
+      </c>
+      <c r="H98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2913,6 +3209,9 @@
         <v>272</v>
       </c>
       <c r="G99" t="n">
+        <v>11</v>
+      </c>
+      <c r="H99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2938,6 +3237,9 @@
         <v>264</v>
       </c>
       <c r="G100" t="n">
+        <v>17</v>
+      </c>
+      <c r="H100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2963,6 +3265,9 @@
         <v>261</v>
       </c>
       <c r="G101" t="n">
+        <v>19</v>
+      </c>
+      <c r="H101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2988,6 +3293,9 @@
         <v>260</v>
       </c>
       <c r="G102" t="n">
+        <v>19</v>
+      </c>
+      <c r="H102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3013,6 +3321,9 @@
         <v>260</v>
       </c>
       <c r="G103" t="n">
+        <v>15</v>
+      </c>
+      <c r="H103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3038,6 +3349,9 @@
         <v>256</v>
       </c>
       <c r="G104" t="n">
+        <v>17</v>
+      </c>
+      <c r="H104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3063,6 +3377,9 @@
         <v>255</v>
       </c>
       <c r="G105" t="n">
+        <v>18</v>
+      </c>
+      <c r="H105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3088,6 +3405,9 @@
         <v>253</v>
       </c>
       <c r="G106" t="n">
+        <v>19</v>
+      </c>
+      <c r="H106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3113,6 +3433,9 @@
         <v>247</v>
       </c>
       <c r="G107" t="n">
+        <v>24</v>
+      </c>
+      <c r="H107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,6 +3461,9 @@
         <v>241</v>
       </c>
       <c r="G108" t="n">
+        <v>29</v>
+      </c>
+      <c r="H108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3163,6 +3489,9 @@
         <v>234</v>
       </c>
       <c r="G109" t="n">
+        <v>34</v>
+      </c>
+      <c r="H109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3188,6 +3517,9 @@
         <v>214</v>
       </c>
       <c r="G110" t="n">
+        <v>54</v>
+      </c>
+      <c r="H110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3213,6 +3545,9 @@
         <v>208</v>
       </c>
       <c r="G111" t="n">
+        <v>60</v>
+      </c>
+      <c r="H111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3238,6 +3573,9 @@
         <v>201</v>
       </c>
       <c r="G112" t="n">
+        <v>67</v>
+      </c>
+      <c r="H112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3263,6 +3601,9 @@
         <v>201</v>
       </c>
       <c r="G113" t="n">
+        <v>64</v>
+      </c>
+      <c r="H113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3288,6 +3629,9 @@
         <v>201</v>
       </c>
       <c r="G114" t="n">
+        <v>63</v>
+      </c>
+      <c r="H114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3310,9 +3654,14 @@
         <v>18</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3333,9 +3682,14 @@
         <v>18</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
-      </c>
-      <c r="G116" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3356,9 +3710,14 @@
         <v>18</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" t="inlineStr"/>
+        <v>199</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3379,9 +3738,14 @@
         <v>16</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
-      </c>
-      <c r="G118" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3402,9 +3766,14 @@
         <v>16</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
-      </c>
-      <c r="G119" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3425,9 +3794,14 @@
         <v>16</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" t="inlineStr"/>
+        <v>113</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3448,9 +3822,14 @@
         <v>15</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
-      </c>
-      <c r="G121" t="inlineStr"/>
+        <v>103</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3471,9 +3850,14 @@
         <v>15</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
-      </c>
-      <c r="G122" t="inlineStr"/>
+        <v>98</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3494,9 +3878,14 @@
         <v>15</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
-      </c>
-      <c r="G123" t="inlineStr"/>
+        <v>94</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3517,9 +3906,14 @@
         <v>15</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G124" t="inlineStr"/>
+        <v>89</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3540,9 +3934,14 @@
         <v>15</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
-      </c>
-      <c r="G125" t="inlineStr"/>
+        <v>78</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3563,9 +3962,14 @@
         <v>15</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
-      </c>
-      <c r="G126" t="inlineStr"/>
+        <v>72</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3586,9 +3990,14 @@
         <v>13</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" t="inlineStr"/>
+        <v>59</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3609,9 +4018,14 @@
         <v>12</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
-      </c>
-      <c r="G128" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3632,9 +4046,14 @@
         <v>12</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
-      </c>
-      <c r="G129" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3655,9 +4074,14 @@
         <v>12</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
-      </c>
-      <c r="G130" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3678,9 +4102,14 @@
         <v>12</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
-      </c>
-      <c r="G131" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3701,9 +4130,14 @@
         <v>11</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
-      </c>
-      <c r="G132" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3724,9 +4158,14 @@
         <v>11</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3747,9 +4186,14 @@
         <v>11</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
-      </c>
-      <c r="G134" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3770,9 +4214,14 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
-      </c>
-      <c r="G135" t="inlineStr"/>
+        <v>34</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3793,9 +4242,14 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
-      </c>
-      <c r="G136" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3816,9 +4270,14 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G137" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3839,9 +4298,14 @@
         <v>8</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
-      </c>
-      <c r="G138" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3862,9 +4326,14 @@
         <v>6</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
-      </c>
-      <c r="G139" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3885,9 +4354,14 @@
         <v>6</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
-      </c>
-      <c r="G140" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3908,9 +4382,14 @@
         <v>5</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
-      </c>
-      <c r="G141" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3931,9 +4410,14 @@
         <v>5</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
-      </c>
-      <c r="G142" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -3954,9 +4438,14 @@
         <v>5</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
-      </c>
-      <c r="G143" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3977,9 +4466,14 @@
         <v>5</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
-      </c>
-      <c r="G144" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4000,9 +4494,14 @@
         <v>5</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
-      </c>
-      <c r="G145" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4023,9 +4522,14 @@
         <v>5</v>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G146" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4046,9 +4550,14 @@
         <v>5</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
-      </c>
-      <c r="G147" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4069,9 +4578,14 @@
         <v>5</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G148" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4092,9 +4606,14 @@
         <v>5</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
-      </c>
-      <c r="G149" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4115,9 +4634,14 @@
         <v>5</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
-      </c>
-      <c r="G150" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4138,9 +4662,14 @@
         <v>5</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
-      </c>
-      <c r="G151" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4161,9 +4690,14 @@
         <v>5</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
-      </c>
-      <c r="G152" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4184,9 +4718,14 @@
         <v>5</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
-      </c>
-      <c r="G153" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4207,9 +4746,14 @@
         <v>5</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
-      </c>
-      <c r="G154" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4230,9 +4774,14 @@
         <v>5</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
-      </c>
-      <c r="G155" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4253,9 +4802,14 @@
         <v>5</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
-      </c>
-      <c r="G156" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4276,9 +4830,14 @@
         <v>5</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
-      </c>
-      <c r="G157" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4299,9 +4858,14 @@
         <v>5</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
-      </c>
-      <c r="G158" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4322,9 +4886,14 @@
         <v>4</v>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
-      </c>
-      <c r="G159" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4345,9 +4914,14 @@
         <v>4</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
-      </c>
-      <c r="G160" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4368,9 +4942,14 @@
         <v>4</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
-      </c>
-      <c r="G161" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4391,9 +4970,14 @@
         <v>4</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
-      </c>
-      <c r="G162" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4414,9 +4998,14 @@
         <v>4</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
-      </c>
-      <c r="G163" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4437,9 +5026,14 @@
         <v>4</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
-      </c>
-      <c r="G164" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4460,9 +5054,14 @@
         <v>4</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
-      </c>
-      <c r="G165" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4483,9 +5082,14 @@
         <v>4</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
-      </c>
-      <c r="G166" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4506,9 +5110,14 @@
         <v>4</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
-      </c>
-      <c r="G167" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4529,9 +5138,14 @@
         <v>4</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
-      </c>
-      <c r="G168" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4552,9 +5166,14 @@
         <v>4</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
-      </c>
-      <c r="G169" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4575,9 +5194,14 @@
         <v>4</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
-      </c>
-      <c r="G170" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4598,9 +5222,14 @@
         <v>4</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
-      </c>
-      <c r="G171" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4621,9 +5250,14 @@
         <v>4</v>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
-      </c>
-      <c r="G172" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4644,9 +5278,14 @@
         <v>4</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
-      </c>
-      <c r="G173" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4667,9 +5306,14 @@
         <v>4</v>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
-      </c>
-      <c r="G174" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4690,9 +5334,14 @@
         <v>4</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
-      </c>
-      <c r="G175" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4713,9 +5362,14 @@
         <v>4</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
-      </c>
-      <c r="G176" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4736,9 +5390,14 @@
         <v>4</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
-      </c>
-      <c r="G177" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4759,9 +5418,14 @@
         <v>4</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
-      </c>
-      <c r="G178" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4782,9 +5446,14 @@
         <v>4</v>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
-      </c>
-      <c r="G179" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4805,9 +5474,14 @@
         <v>4</v>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
-      </c>
-      <c r="G180" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4828,9 +5502,14 @@
         <v>4</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
-      </c>
-      <c r="G181" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4851,9 +5530,14 @@
         <v>4</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
-      </c>
-      <c r="G182" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -4874,9 +5558,14 @@
         <v>4</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
-      </c>
-      <c r="G183" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -4894,13 +5583,16 @@
         <v>711</v>
       </c>
       <c r="E184" t="n">
+        <v>4</v>
+      </c>
+      <c r="F184" t="n">
+        <v>16</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
         <v>437</v>
-      </c>
-      <c r="F184" t="n">
-        <v>4</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -4919,13 +5611,16 @@
         <v>691</v>
       </c>
       <c r="E185" t="n">
+        <v>4</v>
+      </c>
+      <c r="F185" t="n">
+        <v>16</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
         <v>449</v>
-      </c>
-      <c r="F185" t="n">
-        <v>4</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -4944,13 +5639,16 @@
         <v>676</v>
       </c>
       <c r="E186" t="n">
+        <v>4</v>
+      </c>
+      <c r="F186" t="n">
+        <v>16</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
         <v>429</v>
-      </c>
-      <c r="F186" t="n">
-        <v>4</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -4969,13 +5667,16 @@
         <v>649</v>
       </c>
       <c r="E187" t="n">
+        <v>4</v>
+      </c>
+      <c r="F187" t="n">
+        <v>16</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
         <v>440</v>
-      </c>
-      <c r="F187" t="n">
-        <v>4</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -4994,13 +5695,16 @@
         <v>645</v>
       </c>
       <c r="E188" t="n">
+        <v>4</v>
+      </c>
+      <c r="F188" t="n">
+        <v>16</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
         <v>412</v>
-      </c>
-      <c r="F188" t="n">
-        <v>4</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -5019,13 +5723,16 @@
         <v>640</v>
       </c>
       <c r="E189" t="n">
+        <v>4</v>
+      </c>
+      <c r="F189" t="n">
+        <v>16</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
         <v>379</v>
-      </c>
-      <c r="F189" t="n">
-        <v>4</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -5044,13 +5751,16 @@
         <v>625</v>
       </c>
       <c r="E190" t="n">
+        <v>4</v>
+      </c>
+      <c r="F190" t="n">
+        <v>16</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
         <v>363</v>
-      </c>
-      <c r="F190" t="n">
-        <v>4</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -5069,13 +5779,16 @@
         <v>621</v>
       </c>
       <c r="E191" t="n">
+        <v>4</v>
+      </c>
+      <c r="F191" t="n">
+        <v>16</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
         <v>377</v>
-      </c>
-      <c r="F191" t="n">
-        <v>4</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -5094,13 +5807,16 @@
         <v>604</v>
       </c>
       <c r="E192" t="n">
+        <v>4</v>
+      </c>
+      <c r="F192" t="n">
+        <v>16</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
         <v>360</v>
-      </c>
-      <c r="F192" t="n">
-        <v>4</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -5119,13 +5835,16 @@
         <v>581</v>
       </c>
       <c r="E193" t="n">
+        <v>4</v>
+      </c>
+      <c r="F193" t="n">
+        <v>16</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
         <v>367</v>
-      </c>
-      <c r="F193" t="n">
-        <v>4</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -5144,13 +5863,16 @@
         <v>567</v>
       </c>
       <c r="E194" t="n">
+        <v>4</v>
+      </c>
+      <c r="F194" t="n">
+        <v>16</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
         <v>384</v>
-      </c>
-      <c r="F194" t="n">
-        <v>4</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -5169,13 +5891,16 @@
         <v>561</v>
       </c>
       <c r="E195" t="n">
+        <v>3</v>
+      </c>
+      <c r="F195" t="n">
+        <v>16</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
         <v>425</v>
-      </c>
-      <c r="F195" t="n">
-        <v>3</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -5194,13 +5919,16 @@
         <v>559</v>
       </c>
       <c r="E196" t="n">
+        <v>3</v>
+      </c>
+      <c r="F196" t="n">
+        <v>16</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
         <v>407</v>
-      </c>
-      <c r="F196" t="n">
-        <v>3</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -5219,13 +5947,16 @@
         <v>543</v>
       </c>
       <c r="E197" t="n">
+        <v>3</v>
+      </c>
+      <c r="F197" t="n">
+        <v>16</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
         <v>396</v>
-      </c>
-      <c r="F197" t="n">
-        <v>3</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -5244,13 +5975,16 @@
         <v>536</v>
       </c>
       <c r="E198" t="n">
+        <v>3</v>
+      </c>
+      <c r="F198" t="n">
+        <v>15</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
         <v>395</v>
-      </c>
-      <c r="F198" t="n">
-        <v>3</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -5269,13 +6003,16 @@
         <v>532</v>
       </c>
       <c r="E199" t="n">
+        <v>3</v>
+      </c>
+      <c r="F199" t="n">
+        <v>15</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
         <v>400</v>
-      </c>
-      <c r="F199" t="n">
-        <v>3</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -5294,13 +6031,16 @@
         <v>522</v>
       </c>
       <c r="E200" t="n">
+        <v>3</v>
+      </c>
+      <c r="F200" t="n">
+        <v>15</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
         <v>408</v>
-      </c>
-      <c r="F200" t="n">
-        <v>3</v>
-      </c>
-      <c r="G200" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -5319,13 +6059,16 @@
         <v>511</v>
       </c>
       <c r="E201" t="n">
+        <v>3</v>
+      </c>
+      <c r="F201" t="n">
+        <v>13</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
         <v>414</v>
-      </c>
-      <c r="F201" t="n">
-        <v>3</v>
-      </c>
-      <c r="G201" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -5344,13 +6087,16 @@
         <v>504</v>
       </c>
       <c r="E202" t="n">
+        <v>3</v>
+      </c>
+      <c r="F202" t="n">
+        <v>13</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
         <v>423</v>
-      </c>
-      <c r="F202" t="n">
-        <v>3</v>
-      </c>
-      <c r="G202" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -5369,13 +6115,16 @@
         <v>494</v>
       </c>
       <c r="E203" t="n">
+        <v>2</v>
+      </c>
+      <c r="F203" t="n">
+        <v>13</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
         <v>422</v>
-      </c>
-      <c r="F203" t="n">
-        <v>2</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -5394,13 +6143,16 @@
         <v>492</v>
       </c>
       <c r="E204" t="n">
+        <v>2</v>
+      </c>
+      <c r="F204" t="n">
+        <v>13</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
         <v>405</v>
-      </c>
-      <c r="F204" t="n">
-        <v>2</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -5419,13 +6171,16 @@
         <v>472</v>
       </c>
       <c r="E205" t="n">
+        <v>2</v>
+      </c>
+      <c r="F205" t="n">
+        <v>13</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
         <v>452</v>
-      </c>
-      <c r="F205" t="n">
-        <v>2</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -5444,13 +6199,16 @@
         <v>466</v>
       </c>
       <c r="E206" t="n">
+        <v>2</v>
+      </c>
+      <c r="F206" t="n">
+        <v>12</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
         <v>461</v>
-      </c>
-      <c r="F206" t="n">
-        <v>2</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -5469,13 +6227,16 @@
         <v>438</v>
       </c>
       <c r="E207" t="n">
+        <v>2</v>
+      </c>
+      <c r="F207" t="n">
+        <v>11</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
         <v>501</v>
-      </c>
-      <c r="F207" t="n">
-        <v>2</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -5494,13 +6255,16 @@
         <v>380</v>
       </c>
       <c r="E208" t="n">
+        <v>2</v>
+      </c>
+      <c r="F208" t="n">
+        <v>11</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
         <v>529</v>
-      </c>
-      <c r="F208" t="n">
-        <v>2</v>
-      </c>
-      <c r="G208" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -5519,13 +6283,16 @@
         <v>380</v>
       </c>
       <c r="E209" t="n">
+        <v>2</v>
+      </c>
+      <c r="F209" t="n">
+        <v>11</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
         <v>541</v>
-      </c>
-      <c r="F209" t="n">
-        <v>2</v>
-      </c>
-      <c r="G209" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -5544,13 +6311,16 @@
         <v>375</v>
       </c>
       <c r="E210" t="n">
+        <v>2</v>
+      </c>
+      <c r="F210" t="n">
+        <v>11</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
         <v>596</v>
-      </c>
-      <c r="F210" t="n">
-        <v>2</v>
-      </c>
-      <c r="G210" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -5569,13 +6339,16 @@
         <v>357</v>
       </c>
       <c r="E211" t="n">
+        <v>2</v>
+      </c>
+      <c r="F211" t="n">
+        <v>11</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
         <v>589</v>
-      </c>
-      <c r="F211" t="n">
-        <v>2</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -5594,13 +6367,16 @@
         <v>339</v>
       </c>
       <c r="E212" t="n">
+        <v>2</v>
+      </c>
+      <c r="F212" t="n">
+        <v>10</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
         <v>607</v>
-      </c>
-      <c r="F212" t="n">
-        <v>2</v>
-      </c>
-      <c r="G212" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -5619,13 +6395,16 @@
         <v>323</v>
       </c>
       <c r="E213" t="n">
+        <v>2</v>
+      </c>
+      <c r="F213" t="n">
+        <v>10</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
         <v>636</v>
-      </c>
-      <c r="F213" t="n">
-        <v>2</v>
-      </c>
-      <c r="G213" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -5644,13 +6423,16 @@
         <v>310</v>
       </c>
       <c r="E214" t="n">
+        <v>2</v>
+      </c>
+      <c r="F214" t="n">
+        <v>4</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
         <v>726</v>
-      </c>
-      <c r="F214" t="n">
-        <v>2</v>
-      </c>
-      <c r="G214" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -5669,13 +6451,16 @@
         <v>287</v>
       </c>
       <c r="E215" t="n">
+        <v>2</v>
+      </c>
+      <c r="F215" t="n">
+        <v>4</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
         <v>791</v>
-      </c>
-      <c r="F215" t="n">
-        <v>2</v>
-      </c>
-      <c r="G215" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -5694,13 +6479,16 @@
         <v>287</v>
       </c>
       <c r="E216" t="n">
+        <v>2</v>
+      </c>
+      <c r="F216" t="n">
+        <v>4</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
         <v>842</v>
-      </c>
-      <c r="F216" t="n">
-        <v>2</v>
-      </c>
-      <c r="G216" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -5719,13 +6507,16 @@
         <v>283</v>
       </c>
       <c r="E217" t="n">
-        <v>888</v>
+        <v>2</v>
       </c>
       <c r="F217" t="n">
         <v>2</v>
       </c>
       <c r="G217" t="n">
         <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>888</v>
       </c>
     </row>
     <row r="218">
@@ -5744,13 +6535,16 @@
         <v>265</v>
       </c>
       <c r="E218" t="n">
-        <v>926</v>
+        <v>2</v>
       </c>
       <c r="F218" t="n">
         <v>2</v>
       </c>
       <c r="G218" t="n">
         <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>926</v>
       </c>
     </row>
     <row r="219">
@@ -5769,13 +6563,16 @@
         <v>254</v>
       </c>
       <c r="E219" t="n">
-        <v>1053</v>
+        <v>2</v>
       </c>
       <c r="F219" t="n">
         <v>2</v>
       </c>
       <c r="G219" t="n">
         <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1053</v>
       </c>
     </row>
     <row r="220">
@@ -5794,13 +6591,16 @@
         <v>244</v>
       </c>
       <c r="E220" t="n">
-        <v>1186</v>
+        <v>2</v>
       </c>
       <c r="F220" t="n">
         <v>2</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1186</v>
       </c>
     </row>
     <row r="221">
@@ -5819,13 +6619,16 @@
         <v>227</v>
       </c>
       <c r="E221" t="n">
-        <v>1279</v>
+        <v>2</v>
       </c>
       <c r="F221" t="n">
         <v>2</v>
       </c>
       <c r="G221" t="n">
         <v>0</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1279</v>
       </c>
     </row>
     <row r="222">
@@ -5844,12 +6647,17 @@
         <v>215</v>
       </c>
       <c r="E222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="n">
         <v>1374</v>
       </c>
-      <c r="F222" t="n">
-        <v>0</v>
-      </c>
-      <c r="G222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -5867,12 +6675,17 @@
         <v>215</v>
       </c>
       <c r="E223" t="n">
+        <v>1</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
         <v>1369</v>
       </c>
-      <c r="F223" t="n">
-        <v>0</v>
-      </c>
-      <c r="G223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -5890,12 +6703,17 @@
         <v>209</v>
       </c>
       <c r="E224" t="n">
+        <v>1</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
         <v>1364</v>
       </c>
-      <c r="F224" t="n">
-        <v>0</v>
-      </c>
-      <c r="G224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -5913,12 +6731,17 @@
         <v>201</v>
       </c>
       <c r="E225" t="n">
+        <v>1</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="n">
         <v>1345</v>
       </c>
-      <c r="F225" t="n">
-        <v>0</v>
-      </c>
-      <c r="G225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -5936,12 +6759,17 @@
         <v>184</v>
       </c>
       <c r="E226" t="n">
+        <v>1</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
         <v>1340</v>
       </c>
-      <c r="F226" t="n">
-        <v>0</v>
-      </c>
-      <c r="G226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -5959,12 +6787,17 @@
         <v>141</v>
       </c>
       <c r="E227" t="n">
+        <v>1</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
         <v>1315</v>
       </c>
-      <c r="F227" t="n">
-        <v>0</v>
-      </c>
-      <c r="G227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -5982,12 +6815,17 @@
         <v>131</v>
       </c>
       <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
         <v>1318</v>
       </c>
-      <c r="F228" t="n">
-        <v>0</v>
-      </c>
-      <c r="G228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -6005,12 +6843,17 @@
         <v>117</v>
       </c>
       <c r="E229" t="n">
+        <v>0</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
         <v>1317</v>
       </c>
-      <c r="F229" t="n">
-        <v>0</v>
-      </c>
-      <c r="G229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -6028,12 +6871,17 @@
         <v>110</v>
       </c>
       <c r="E230" t="n">
+        <v>0</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
         <v>1297</v>
       </c>
-      <c r="F230" t="n">
-        <v>0</v>
-      </c>
-      <c r="G230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -6051,12 +6899,17 @@
         <v>100</v>
       </c>
       <c r="E231" t="n">
+        <v>0</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
         <v>1273</v>
       </c>
-      <c r="F231" t="n">
-        <v>0</v>
-      </c>
-      <c r="G231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -6074,12 +6927,17 @@
         <v>100</v>
       </c>
       <c r="E232" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="n">
         <v>1219</v>
       </c>
-      <c r="F232" t="n">
-        <v>0</v>
-      </c>
-      <c r="G232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -6097,12 +6955,17 @@
         <v>87</v>
       </c>
       <c r="E233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="n">
         <v>1196</v>
       </c>
-      <c r="F233" t="n">
-        <v>0</v>
-      </c>
-      <c r="G233" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataSet/rawData/bd.xlsx
+++ b/dataSet/rawData/bd.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G233"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6271,6 +6271,156 @@
         <v>1196</v>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>11.01.2021</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>2875</v>
+      </c>
+      <c r="C234" t="n">
+        <v>11529</v>
+      </c>
+      <c r="D234" t="n">
+        <v>144</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1963</v>
+      </c>
+      <c r="F234" t="n">
+        <v>768</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>10.01.2021</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>2869</v>
+      </c>
+      <c r="C235" t="n">
+        <v>11486</v>
+      </c>
+      <c r="D235" t="n">
+        <v>141</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1852</v>
+      </c>
+      <c r="F235" t="n">
+        <v>876</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>09.01.2021</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>2854</v>
+      </c>
+      <c r="C236" t="n">
+        <v>11408</v>
+      </c>
+      <c r="D236" t="n">
+        <v>140</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1750</v>
+      </c>
+      <c r="F236" t="n">
+        <v>964</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>08.01.2021</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>2834</v>
+      </c>
+      <c r="C237" t="n">
+        <v>11345</v>
+      </c>
+      <c r="D237" t="n">
+        <v>139</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1648</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1047</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>05.01.2021</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>2780</v>
+      </c>
+      <c r="C238" t="n">
+        <v>11177</v>
+      </c>
+      <c r="D238" t="n">
+        <v>136</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1494</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>03.01.2021</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>2737</v>
+      </c>
+      <c r="C239" t="n">
+        <v>11026</v>
+      </c>
+      <c r="D239" t="n">
+        <v>134</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1475</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/rawData/bd.xlsx
+++ b/dataSet/rawData/bd.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G239"/>
+  <dimension ref="A1:G240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,23 +6274,23 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>11.01.2021</t>
+          <t>12.01.2021</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>2875</v>
+        <v>2889</v>
       </c>
       <c r="C234" t="n">
-        <v>11529</v>
+        <v>11608</v>
       </c>
       <c r="D234" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E234" t="n">
-        <v>1963</v>
+        <v>2080</v>
       </c>
       <c r="F234" t="n">
-        <v>768</v>
+        <v>663</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6299,23 +6299,23 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>10.01.2021</t>
+          <t>11.01.2021</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>2869</v>
+        <v>2875</v>
       </c>
       <c r="C235" t="n">
-        <v>11486</v>
+        <v>11529</v>
       </c>
       <c r="D235" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E235" t="n">
-        <v>1852</v>
+        <v>1963</v>
       </c>
       <c r="F235" t="n">
-        <v>876</v>
+        <v>768</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -6324,23 +6324,23 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>09.01.2021</t>
+          <t>10.01.2021</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>2854</v>
+        <v>2869</v>
       </c>
       <c r="C236" t="n">
-        <v>11408</v>
+        <v>11486</v>
       </c>
       <c r="D236" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E236" t="n">
-        <v>1750</v>
+        <v>1852</v>
       </c>
       <c r="F236" t="n">
-        <v>964</v>
+        <v>876</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -6349,23 +6349,23 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>08.01.2021</t>
+          <t>09.01.2021</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>2834</v>
+        <v>2854</v>
       </c>
       <c r="C237" t="n">
-        <v>11345</v>
+        <v>11408</v>
       </c>
       <c r="D237" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E237" t="n">
-        <v>1648</v>
+        <v>1750</v>
       </c>
       <c r="F237" t="n">
-        <v>1047</v>
+        <v>964</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -6374,23 +6374,23 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>05.01.2021</t>
+          <t>08.01.2021</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>2780</v>
+        <v>2834</v>
       </c>
       <c r="C238" t="n">
-        <v>11177</v>
+        <v>11345</v>
       </c>
       <c r="D238" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E238" t="n">
-        <v>1494</v>
+        <v>1648</v>
       </c>
       <c r="F238" t="n">
-        <v>1150</v>
+        <v>1047</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -6399,25 +6399,50 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
+          <t>05.01.2021</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>2780</v>
+      </c>
+      <c r="C239" t="n">
+        <v>11177</v>
+      </c>
+      <c r="D239" t="n">
+        <v>136</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1494</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
           <t>03.01.2021</t>
         </is>
       </c>
-      <c r="B239" t="n">
+      <c r="B240" t="n">
         <v>2737</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C240" t="n">
         <v>11026</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D240" t="n">
         <v>134</v>
       </c>
-      <c r="E239" t="n">
+      <c r="E240" t="n">
         <v>1475</v>
       </c>
-      <c r="F239" t="n">
+      <c r="F240" t="n">
         <v>1128</v>
       </c>
-      <c r="G239" t="n">
+      <c r="G240" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dataSet/rawData/bd.xlsx
+++ b/dataSet/rawData/bd.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G240"/>
+  <dimension ref="A1:G248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,23 +6274,23 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>12.01.2021</t>
+          <t>20.01.2021</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>2889</v>
+        <v>2995</v>
       </c>
       <c r="C234" t="n">
-        <v>11608</v>
+        <v>12111</v>
       </c>
       <c r="D234" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E234" t="n">
-        <v>2080</v>
+        <v>2435</v>
       </c>
       <c r="F234" t="n">
-        <v>663</v>
+        <v>408</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6299,23 +6299,23 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>11.01.2021</t>
+          <t>19.01.2021</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>2875</v>
+        <v>2983</v>
       </c>
       <c r="C235" t="n">
-        <v>11529</v>
+        <v>12053</v>
       </c>
       <c r="D235" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E235" t="n">
-        <v>1963</v>
+        <v>2422</v>
       </c>
       <c r="F235" t="n">
-        <v>768</v>
+        <v>414</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -6324,23 +6324,23 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>10.01.2021</t>
+          <t>18.01.2021</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>2869</v>
+        <v>2962</v>
       </c>
       <c r="C236" t="n">
-        <v>11486</v>
+        <v>11970</v>
       </c>
       <c r="D236" t="n">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E236" t="n">
-        <v>1852</v>
+        <v>2365</v>
       </c>
       <c r="F236" t="n">
-        <v>876</v>
+        <v>450</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -6349,23 +6349,23 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>09.01.2021</t>
+          <t>17.01.2021</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>2854</v>
+        <v>2959</v>
       </c>
       <c r="C237" t="n">
-        <v>11408</v>
+        <v>11943</v>
       </c>
       <c r="D237" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E237" t="n">
-        <v>1750</v>
+        <v>2308</v>
       </c>
       <c r="F237" t="n">
-        <v>964</v>
+        <v>504</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -6374,23 +6374,23 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>08.01.2021</t>
+          <t>16.01.2021</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>2834</v>
+        <v>2958</v>
       </c>
       <c r="C238" t="n">
-        <v>11345</v>
+        <v>11909</v>
       </c>
       <c r="D238" t="n">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E238" t="n">
-        <v>1648</v>
+        <v>2305</v>
       </c>
       <c r="F238" t="n">
-        <v>1047</v>
+        <v>507</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -6399,23 +6399,23 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>05.01.2021</t>
+          <t>15.01.2021</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>2780</v>
+        <v>2938</v>
       </c>
       <c r="C239" t="n">
-        <v>11177</v>
+        <v>11842</v>
       </c>
       <c r="D239" t="n">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E239" t="n">
-        <v>1494</v>
+        <v>2293</v>
       </c>
       <c r="F239" t="n">
-        <v>1150</v>
+        <v>499</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -6424,25 +6424,225 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
+          <t>14.01.2021</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>2913</v>
+      </c>
+      <c r="C240" t="n">
+        <v>11779</v>
+      </c>
+      <c r="D240" t="n">
+        <v>142</v>
+      </c>
+      <c r="E240" t="n">
+        <v>2292</v>
+      </c>
+      <c r="F240" t="n">
+        <v>475</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>13.01.2021</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>2898</v>
+      </c>
+      <c r="C241" t="n">
+        <v>11692</v>
+      </c>
+      <c r="D241" t="n">
+        <v>146</v>
+      </c>
+      <c r="E241" t="n">
+        <v>2090</v>
+      </c>
+      <c r="F241" t="n">
+        <v>662</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>12.01.2021</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>2889</v>
+      </c>
+      <c r="C242" t="n">
+        <v>11608</v>
+      </c>
+      <c r="D242" t="n">
+        <v>146</v>
+      </c>
+      <c r="E242" t="n">
+        <v>2080</v>
+      </c>
+      <c r="F242" t="n">
+        <v>663</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>11.01.2021</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>2875</v>
+      </c>
+      <c r="C243" t="n">
+        <v>11529</v>
+      </c>
+      <c r="D243" t="n">
+        <v>144</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1963</v>
+      </c>
+      <c r="F243" t="n">
+        <v>768</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>10.01.2021</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>2869</v>
+      </c>
+      <c r="C244" t="n">
+        <v>11486</v>
+      </c>
+      <c r="D244" t="n">
+        <v>141</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1852</v>
+      </c>
+      <c r="F244" t="n">
+        <v>876</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>09.01.2021</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>2854</v>
+      </c>
+      <c r="C245" t="n">
+        <v>11408</v>
+      </c>
+      <c r="D245" t="n">
+        <v>140</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1750</v>
+      </c>
+      <c r="F245" t="n">
+        <v>964</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>08.01.2021</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>2834</v>
+      </c>
+      <c r="C246" t="n">
+        <v>11345</v>
+      </c>
+      <c r="D246" t="n">
+        <v>139</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1648</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1047</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>05.01.2021</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>2780</v>
+      </c>
+      <c r="C247" t="n">
+        <v>11177</v>
+      </c>
+      <c r="D247" t="n">
+        <v>136</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1494</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
           <t>03.01.2021</t>
         </is>
       </c>
-      <c r="B240" t="n">
+      <c r="B248" t="n">
         <v>2737</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C248" t="n">
         <v>11026</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D248" t="n">
         <v>134</v>
       </c>
-      <c r="E240" t="n">
+      <c r="E248" t="n">
         <v>1475</v>
       </c>
-      <c r="F240" t="n">
+      <c r="F248" t="n">
         <v>1128</v>
       </c>
-      <c r="G240" t="n">
+      <c r="G248" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dataSet/rawData/bd.xlsx
+++ b/dataSet/rawData/bd.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G248"/>
+  <dimension ref="A1:G249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,23 +6274,23 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20.01.2021</t>
+          <t>21.01.2021</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>2995</v>
+        <v>3006</v>
       </c>
       <c r="C234" t="n">
-        <v>12111</v>
+        <v>12167</v>
       </c>
       <c r="D234" t="n">
         <v>152</v>
       </c>
       <c r="E234" t="n">
-        <v>2435</v>
+        <v>2449</v>
       </c>
       <c r="F234" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6299,23 +6299,23 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>19.01.2021</t>
+          <t>20.01.2021</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>2983</v>
+        <v>2995</v>
       </c>
       <c r="C235" t="n">
-        <v>12053</v>
+        <v>12111</v>
       </c>
       <c r="D235" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E235" t="n">
-        <v>2422</v>
+        <v>2435</v>
       </c>
       <c r="F235" t="n">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -6324,23 +6324,23 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>18.01.2021</t>
+          <t>19.01.2021</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>2962</v>
+        <v>2983</v>
       </c>
       <c r="C236" t="n">
-        <v>11970</v>
+        <v>12053</v>
       </c>
       <c r="D236" t="n">
         <v>147</v>
       </c>
       <c r="E236" t="n">
-        <v>2365</v>
+        <v>2422</v>
       </c>
       <c r="F236" t="n">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -6349,23 +6349,23 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>17.01.2021</t>
+          <t>18.01.2021</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>2959</v>
+        <v>2962</v>
       </c>
       <c r="C237" t="n">
-        <v>11943</v>
+        <v>11970</v>
       </c>
       <c r="D237" t="n">
         <v>147</v>
       </c>
       <c r="E237" t="n">
-        <v>2308</v>
+        <v>2365</v>
       </c>
       <c r="F237" t="n">
-        <v>504</v>
+        <v>450</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -6374,23 +6374,23 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>16.01.2021</t>
+          <t>17.01.2021</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="C238" t="n">
-        <v>11909</v>
+        <v>11943</v>
       </c>
       <c r="D238" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E238" t="n">
-        <v>2305</v>
+        <v>2308</v>
       </c>
       <c r="F238" t="n">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -6399,23 +6399,23 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>15.01.2021</t>
+          <t>16.01.2021</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>2938</v>
+        <v>2958</v>
       </c>
       <c r="C239" t="n">
-        <v>11842</v>
+        <v>11909</v>
       </c>
       <c r="D239" t="n">
         <v>146</v>
       </c>
       <c r="E239" t="n">
-        <v>2293</v>
+        <v>2305</v>
       </c>
       <c r="F239" t="n">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -6424,23 +6424,23 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>14.01.2021</t>
+          <t>15.01.2021</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>2913</v>
+        <v>2938</v>
       </c>
       <c r="C240" t="n">
-        <v>11779</v>
+        <v>11842</v>
       </c>
       <c r="D240" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E240" t="n">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="F240" t="n">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -6449,23 +6449,23 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>13.01.2021</t>
+          <t>14.01.2021</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>2898</v>
+        <v>2913</v>
       </c>
       <c r="C241" t="n">
-        <v>11692</v>
+        <v>11779</v>
       </c>
       <c r="D241" t="n">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E241" t="n">
-        <v>2090</v>
+        <v>2292</v>
       </c>
       <c r="F241" t="n">
-        <v>662</v>
+        <v>475</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -6474,23 +6474,23 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>12.01.2021</t>
+          <t>13.01.2021</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>2889</v>
+        <v>2898</v>
       </c>
       <c r="C242" t="n">
-        <v>11608</v>
+        <v>11692</v>
       </c>
       <c r="D242" t="n">
         <v>146</v>
       </c>
       <c r="E242" t="n">
-        <v>2080</v>
+        <v>2090</v>
       </c>
       <c r="F242" t="n">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -6499,23 +6499,23 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>11.01.2021</t>
+          <t>12.01.2021</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2875</v>
+        <v>2889</v>
       </c>
       <c r="C243" t="n">
-        <v>11529</v>
+        <v>11608</v>
       </c>
       <c r="D243" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E243" t="n">
-        <v>1963</v>
+        <v>2080</v>
       </c>
       <c r="F243" t="n">
-        <v>768</v>
+        <v>663</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -6524,23 +6524,23 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>10.01.2021</t>
+          <t>11.01.2021</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>2869</v>
+        <v>2875</v>
       </c>
       <c r="C244" t="n">
-        <v>11486</v>
+        <v>11529</v>
       </c>
       <c r="D244" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E244" t="n">
-        <v>1852</v>
+        <v>1963</v>
       </c>
       <c r="F244" t="n">
-        <v>876</v>
+        <v>768</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -6549,23 +6549,23 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>09.01.2021</t>
+          <t>10.01.2021</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2854</v>
+        <v>2869</v>
       </c>
       <c r="C245" t="n">
-        <v>11408</v>
+        <v>11486</v>
       </c>
       <c r="D245" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E245" t="n">
-        <v>1750</v>
+        <v>1852</v>
       </c>
       <c r="F245" t="n">
-        <v>964</v>
+        <v>876</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -6574,23 +6574,23 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>08.01.2021</t>
+          <t>09.01.2021</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>2834</v>
+        <v>2854</v>
       </c>
       <c r="C246" t="n">
-        <v>11345</v>
+        <v>11408</v>
       </c>
       <c r="D246" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E246" t="n">
-        <v>1648</v>
+        <v>1750</v>
       </c>
       <c r="F246" t="n">
-        <v>1047</v>
+        <v>964</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -6599,23 +6599,23 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>05.01.2021</t>
+          <t>08.01.2021</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>2780</v>
+        <v>2834</v>
       </c>
       <c r="C247" t="n">
-        <v>11177</v>
+        <v>11345</v>
       </c>
       <c r="D247" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E247" t="n">
-        <v>1494</v>
+        <v>1648</v>
       </c>
       <c r="F247" t="n">
-        <v>1150</v>
+        <v>1047</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -6624,25 +6624,50 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
+          <t>05.01.2021</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>2780</v>
+      </c>
+      <c r="C248" t="n">
+        <v>11177</v>
+      </c>
+      <c r="D248" t="n">
+        <v>136</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1494</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
           <t>03.01.2021</t>
         </is>
       </c>
-      <c r="B248" t="n">
+      <c r="B249" t="n">
         <v>2737</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C249" t="n">
         <v>11026</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D249" t="n">
         <v>134</v>
       </c>
-      <c r="E248" t="n">
+      <c r="E249" t="n">
         <v>1475</v>
       </c>
-      <c r="F248" t="n">
+      <c r="F249" t="n">
         <v>1128</v>
       </c>
-      <c r="G248" t="n">
+      <c r="G249" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dataSet/rawData/bd.xlsx
+++ b/dataSet/rawData/bd.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G249"/>
+  <dimension ref="A1:G251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,23 +6274,23 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>21.01.2021</t>
+          <t>25.01.2021</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>3006</v>
+        <v>3040</v>
       </c>
       <c r="C234" t="n">
-        <v>12167</v>
+        <v>12375</v>
       </c>
       <c r="D234" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E234" t="n">
-        <v>2449</v>
+        <v>2492</v>
       </c>
       <c r="F234" t="n">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6299,23 +6299,23 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20.01.2021</t>
+          <t>22.01.2021</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>2995</v>
+        <v>3022</v>
       </c>
       <c r="C235" t="n">
-        <v>12111</v>
+        <v>12217</v>
       </c>
       <c r="D235" t="n">
         <v>152</v>
       </c>
       <c r="E235" t="n">
-        <v>2435</v>
+        <v>2454</v>
       </c>
       <c r="F235" t="n">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -6324,23 +6324,23 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>19.01.2021</t>
+          <t>21.01.2021</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>2983</v>
+        <v>3006</v>
       </c>
       <c r="C236" t="n">
-        <v>12053</v>
+        <v>12167</v>
       </c>
       <c r="D236" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E236" t="n">
-        <v>2422</v>
+        <v>2449</v>
       </c>
       <c r="F236" t="n">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -6349,23 +6349,23 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>18.01.2021</t>
+          <t>20.01.2021</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>2962</v>
+        <v>2995</v>
       </c>
       <c r="C237" t="n">
-        <v>11970</v>
+        <v>12111</v>
       </c>
       <c r="D237" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E237" t="n">
-        <v>2365</v>
+        <v>2435</v>
       </c>
       <c r="F237" t="n">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -6374,23 +6374,23 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>17.01.2021</t>
+          <t>19.01.2021</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>2959</v>
+        <v>2983</v>
       </c>
       <c r="C238" t="n">
-        <v>11943</v>
+        <v>12053</v>
       </c>
       <c r="D238" t="n">
         <v>147</v>
       </c>
       <c r="E238" t="n">
-        <v>2308</v>
+        <v>2422</v>
       </c>
       <c r="F238" t="n">
-        <v>504</v>
+        <v>414</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -6399,23 +6399,23 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>16.01.2021</t>
+          <t>18.01.2021</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>2958</v>
+        <v>2962</v>
       </c>
       <c r="C239" t="n">
-        <v>11909</v>
+        <v>11970</v>
       </c>
       <c r="D239" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E239" t="n">
-        <v>2305</v>
+        <v>2365</v>
       </c>
       <c r="F239" t="n">
-        <v>507</v>
+        <v>450</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -6424,23 +6424,23 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>15.01.2021</t>
+          <t>17.01.2021</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>2938</v>
+        <v>2959</v>
       </c>
       <c r="C240" t="n">
-        <v>11842</v>
+        <v>11943</v>
       </c>
       <c r="D240" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E240" t="n">
-        <v>2293</v>
+        <v>2308</v>
       </c>
       <c r="F240" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -6449,23 +6449,23 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>14.01.2021</t>
+          <t>16.01.2021</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>2913</v>
+        <v>2958</v>
       </c>
       <c r="C241" t="n">
-        <v>11779</v>
+        <v>11909</v>
       </c>
       <c r="D241" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E241" t="n">
-        <v>2292</v>
+        <v>2305</v>
       </c>
       <c r="F241" t="n">
-        <v>475</v>
+        <v>507</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -6474,23 +6474,23 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>13.01.2021</t>
+          <t>15.01.2021</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>2898</v>
+        <v>2938</v>
       </c>
       <c r="C242" t="n">
-        <v>11692</v>
+        <v>11842</v>
       </c>
       <c r="D242" t="n">
         <v>146</v>
       </c>
       <c r="E242" t="n">
-        <v>2090</v>
+        <v>2293</v>
       </c>
       <c r="F242" t="n">
-        <v>662</v>
+        <v>499</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -6499,23 +6499,23 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>12.01.2021</t>
+          <t>14.01.2021</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2889</v>
+        <v>2913</v>
       </c>
       <c r="C243" t="n">
-        <v>11608</v>
+        <v>11779</v>
       </c>
       <c r="D243" t="n">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E243" t="n">
-        <v>2080</v>
+        <v>2292</v>
       </c>
       <c r="F243" t="n">
-        <v>663</v>
+        <v>475</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -6524,23 +6524,23 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>11.01.2021</t>
+          <t>13.01.2021</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>2875</v>
+        <v>2898</v>
       </c>
       <c r="C244" t="n">
-        <v>11529</v>
+        <v>11692</v>
       </c>
       <c r="D244" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E244" t="n">
-        <v>1963</v>
+        <v>2090</v>
       </c>
       <c r="F244" t="n">
-        <v>768</v>
+        <v>662</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -6549,23 +6549,23 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>10.01.2021</t>
+          <t>12.01.2021</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2869</v>
+        <v>2889</v>
       </c>
       <c r="C245" t="n">
-        <v>11486</v>
+        <v>11608</v>
       </c>
       <c r="D245" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E245" t="n">
-        <v>1852</v>
+        <v>2080</v>
       </c>
       <c r="F245" t="n">
-        <v>876</v>
+        <v>663</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -6574,23 +6574,23 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>09.01.2021</t>
+          <t>11.01.2021</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>2854</v>
+        <v>2875</v>
       </c>
       <c r="C246" t="n">
-        <v>11408</v>
+        <v>11529</v>
       </c>
       <c r="D246" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E246" t="n">
-        <v>1750</v>
+        <v>1963</v>
       </c>
       <c r="F246" t="n">
-        <v>964</v>
+        <v>768</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -6599,23 +6599,23 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>08.01.2021</t>
+          <t>10.01.2021</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>2834</v>
+        <v>2869</v>
       </c>
       <c r="C247" t="n">
-        <v>11345</v>
+        <v>11486</v>
       </c>
       <c r="D247" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E247" t="n">
-        <v>1648</v>
+        <v>1852</v>
       </c>
       <c r="F247" t="n">
-        <v>1047</v>
+        <v>876</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -6624,23 +6624,23 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>05.01.2021</t>
+          <t>09.01.2021</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>2780</v>
+        <v>2854</v>
       </c>
       <c r="C248" t="n">
-        <v>11177</v>
+        <v>11408</v>
       </c>
       <c r="D248" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E248" t="n">
-        <v>1494</v>
+        <v>1750</v>
       </c>
       <c r="F248" t="n">
-        <v>1150</v>
+        <v>964</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
@@ -6649,25 +6649,75 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
+          <t>08.01.2021</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>2834</v>
+      </c>
+      <c r="C249" t="n">
+        <v>11345</v>
+      </c>
+      <c r="D249" t="n">
+        <v>139</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1648</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1047</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>05.01.2021</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>2780</v>
+      </c>
+      <c r="C250" t="n">
+        <v>11177</v>
+      </c>
+      <c r="D250" t="n">
+        <v>136</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1494</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
           <t>03.01.2021</t>
         </is>
       </c>
-      <c r="B249" t="n">
+      <c r="B251" t="n">
         <v>2737</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C251" t="n">
         <v>11026</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D251" t="n">
         <v>134</v>
       </c>
-      <c r="E249" t="n">
+      <c r="E251" t="n">
         <v>1475</v>
       </c>
-      <c r="F249" t="n">
+      <c r="F251" t="n">
         <v>1128</v>
       </c>
-      <c r="G249" t="n">
+      <c r="G251" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dataSet/rawData/bd.xlsx
+++ b/dataSet/rawData/bd.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:G253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,23 +6274,23 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>25.01.2021</t>
+          <t>27.01.2021</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>3040</v>
+        <v>3078</v>
       </c>
       <c r="C234" t="n">
-        <v>12375</v>
+        <v>12500</v>
       </c>
       <c r="D234" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E234" t="n">
-        <v>2492</v>
+        <v>2502</v>
       </c>
       <c r="F234" t="n">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6299,23 +6299,23 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>22.01.2021</t>
+          <t>26.01.2021</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>3022</v>
+        <v>3062</v>
       </c>
       <c r="C235" t="n">
-        <v>12217</v>
+        <v>12441</v>
       </c>
       <c r="D235" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E235" t="n">
-        <v>2454</v>
+        <v>2501</v>
       </c>
       <c r="F235" t="n">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -6324,23 +6324,23 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>21.01.2021</t>
+          <t>25.01.2021</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>3006</v>
+        <v>3040</v>
       </c>
       <c r="C236" t="n">
-        <v>12167</v>
+        <v>12375</v>
       </c>
       <c r="D236" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E236" t="n">
-        <v>2449</v>
+        <v>2492</v>
       </c>
       <c r="F236" t="n">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -6349,23 +6349,23 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20.01.2021</t>
+          <t>22.01.2021</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>2995</v>
+        <v>3022</v>
       </c>
       <c r="C237" t="n">
-        <v>12111</v>
+        <v>12217</v>
       </c>
       <c r="D237" t="n">
         <v>152</v>
       </c>
       <c r="E237" t="n">
-        <v>2435</v>
+        <v>2454</v>
       </c>
       <c r="F237" t="n">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -6374,23 +6374,23 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>19.01.2021</t>
+          <t>21.01.2021</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>2983</v>
+        <v>3006</v>
       </c>
       <c r="C238" t="n">
-        <v>12053</v>
+        <v>12167</v>
       </c>
       <c r="D238" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E238" t="n">
-        <v>2422</v>
+        <v>2449</v>
       </c>
       <c r="F238" t="n">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -6399,23 +6399,23 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>18.01.2021</t>
+          <t>20.01.2021</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>2962</v>
+        <v>2995</v>
       </c>
       <c r="C239" t="n">
-        <v>11970</v>
+        <v>12111</v>
       </c>
       <c r="D239" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E239" t="n">
-        <v>2365</v>
+        <v>2435</v>
       </c>
       <c r="F239" t="n">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -6424,23 +6424,23 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>17.01.2021</t>
+          <t>19.01.2021</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>2959</v>
+        <v>2983</v>
       </c>
       <c r="C240" t="n">
-        <v>11943</v>
+        <v>12053</v>
       </c>
       <c r="D240" t="n">
         <v>147</v>
       </c>
       <c r="E240" t="n">
-        <v>2308</v>
+        <v>2422</v>
       </c>
       <c r="F240" t="n">
-        <v>504</v>
+        <v>414</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -6449,23 +6449,23 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>16.01.2021</t>
+          <t>18.01.2021</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>2958</v>
+        <v>2962</v>
       </c>
       <c r="C241" t="n">
-        <v>11909</v>
+        <v>11970</v>
       </c>
       <c r="D241" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E241" t="n">
-        <v>2305</v>
+        <v>2365</v>
       </c>
       <c r="F241" t="n">
-        <v>507</v>
+        <v>450</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -6474,23 +6474,23 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>15.01.2021</t>
+          <t>17.01.2021</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>2938</v>
+        <v>2959</v>
       </c>
       <c r="C242" t="n">
-        <v>11842</v>
+        <v>11943</v>
       </c>
       <c r="D242" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E242" t="n">
-        <v>2293</v>
+        <v>2308</v>
       </c>
       <c r="F242" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -6499,23 +6499,23 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>14.01.2021</t>
+          <t>16.01.2021</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2913</v>
+        <v>2958</v>
       </c>
       <c r="C243" t="n">
-        <v>11779</v>
+        <v>11909</v>
       </c>
       <c r="D243" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E243" t="n">
-        <v>2292</v>
+        <v>2305</v>
       </c>
       <c r="F243" t="n">
-        <v>475</v>
+        <v>507</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -6524,23 +6524,23 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>13.01.2021</t>
+          <t>15.01.2021</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>2898</v>
+        <v>2938</v>
       </c>
       <c r="C244" t="n">
-        <v>11692</v>
+        <v>11842</v>
       </c>
       <c r="D244" t="n">
         <v>146</v>
       </c>
       <c r="E244" t="n">
-        <v>2090</v>
+        <v>2293</v>
       </c>
       <c r="F244" t="n">
-        <v>662</v>
+        <v>499</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -6549,23 +6549,23 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>12.01.2021</t>
+          <t>14.01.2021</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2889</v>
+        <v>2913</v>
       </c>
       <c r="C245" t="n">
-        <v>11608</v>
+        <v>11779</v>
       </c>
       <c r="D245" t="n">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E245" t="n">
-        <v>2080</v>
+        <v>2292</v>
       </c>
       <c r="F245" t="n">
-        <v>663</v>
+        <v>475</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -6574,23 +6574,23 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>11.01.2021</t>
+          <t>13.01.2021</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>2875</v>
+        <v>2898</v>
       </c>
       <c r="C246" t="n">
-        <v>11529</v>
+        <v>11692</v>
       </c>
       <c r="D246" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E246" t="n">
-        <v>1963</v>
+        <v>2090</v>
       </c>
       <c r="F246" t="n">
-        <v>768</v>
+        <v>662</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -6599,23 +6599,23 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>10.01.2021</t>
+          <t>12.01.2021</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>2869</v>
+        <v>2889</v>
       </c>
       <c r="C247" t="n">
-        <v>11486</v>
+        <v>11608</v>
       </c>
       <c r="D247" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E247" t="n">
-        <v>1852</v>
+        <v>2080</v>
       </c>
       <c r="F247" t="n">
-        <v>876</v>
+        <v>663</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -6624,23 +6624,23 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>09.01.2021</t>
+          <t>11.01.2021</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>2854</v>
+        <v>2875</v>
       </c>
       <c r="C248" t="n">
-        <v>11408</v>
+        <v>11529</v>
       </c>
       <c r="D248" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E248" t="n">
-        <v>1750</v>
+        <v>1963</v>
       </c>
       <c r="F248" t="n">
-        <v>964</v>
+        <v>768</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
@@ -6649,23 +6649,23 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>08.01.2021</t>
+          <t>10.01.2021</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>2834</v>
+        <v>2869</v>
       </c>
       <c r="C249" t="n">
-        <v>11345</v>
+        <v>11486</v>
       </c>
       <c r="D249" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E249" t="n">
-        <v>1648</v>
+        <v>1852</v>
       </c>
       <c r="F249" t="n">
-        <v>1047</v>
+        <v>876</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
@@ -6674,23 +6674,23 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>05.01.2021</t>
+          <t>09.01.2021</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2780</v>
+        <v>2854</v>
       </c>
       <c r="C250" t="n">
-        <v>11177</v>
+        <v>11408</v>
       </c>
       <c r="D250" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E250" t="n">
-        <v>1494</v>
+        <v>1750</v>
       </c>
       <c r="F250" t="n">
-        <v>1150</v>
+        <v>964</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
@@ -6699,25 +6699,75 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
+          <t>08.01.2021</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>2834</v>
+      </c>
+      <c r="C251" t="n">
+        <v>11345</v>
+      </c>
+      <c r="D251" t="n">
+        <v>139</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1648</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1047</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>05.01.2021</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>2780</v>
+      </c>
+      <c r="C252" t="n">
+        <v>11177</v>
+      </c>
+      <c r="D252" t="n">
+        <v>136</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1494</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
           <t>03.01.2021</t>
         </is>
       </c>
-      <c r="B251" t="n">
+      <c r="B253" t="n">
         <v>2737</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C253" t="n">
         <v>11026</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D253" t="n">
         <v>134</v>
       </c>
-      <c r="E251" t="n">
+      <c r="E253" t="n">
         <v>1475</v>
       </c>
-      <c r="F251" t="n">
+      <c r="F253" t="n">
         <v>1128</v>
       </c>
-      <c r="G251" t="n">
+      <c r="G253" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dataSet/rawData/bd.xlsx
+++ b/dataSet/rawData/bd.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G253"/>
+  <dimension ref="A1:G254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,23 +6274,23 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>27.01.2021</t>
+          <t>28.01.2021</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>3078</v>
+        <v>3091</v>
       </c>
       <c r="C234" t="n">
-        <v>12500</v>
+        <v>12565</v>
       </c>
       <c r="D234" t="n">
         <v>156</v>
       </c>
       <c r="E234" t="n">
-        <v>2502</v>
+        <v>2521</v>
       </c>
       <c r="F234" t="n">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6299,23 +6299,23 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>26.01.2021</t>
+          <t>27.01.2021</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>3062</v>
+        <v>3078</v>
       </c>
       <c r="C235" t="n">
-        <v>12441</v>
+        <v>12500</v>
       </c>
       <c r="D235" t="n">
         <v>156</v>
       </c>
       <c r="E235" t="n">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="F235" t="n">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -6324,23 +6324,23 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>25.01.2021</t>
+          <t>26.01.2021</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>3040</v>
+        <v>3062</v>
       </c>
       <c r="C236" t="n">
-        <v>12375</v>
+        <v>12441</v>
       </c>
       <c r="D236" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E236" t="n">
-        <v>2492</v>
+        <v>2501</v>
       </c>
       <c r="F236" t="n">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -6349,23 +6349,23 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>22.01.2021</t>
+          <t>25.01.2021</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>3022</v>
+        <v>3040</v>
       </c>
       <c r="C237" t="n">
-        <v>12217</v>
+        <v>12375</v>
       </c>
       <c r="D237" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E237" t="n">
-        <v>2454</v>
+        <v>2492</v>
       </c>
       <c r="F237" t="n">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -6374,23 +6374,23 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>21.01.2021</t>
+          <t>22.01.2021</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>3006</v>
+        <v>3022</v>
       </c>
       <c r="C238" t="n">
-        <v>12167</v>
+        <v>12217</v>
       </c>
       <c r="D238" t="n">
         <v>152</v>
       </c>
       <c r="E238" t="n">
-        <v>2449</v>
+        <v>2454</v>
       </c>
       <c r="F238" t="n">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -6399,23 +6399,23 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20.01.2021</t>
+          <t>21.01.2021</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>2995</v>
+        <v>3006</v>
       </c>
       <c r="C239" t="n">
-        <v>12111</v>
+        <v>12167</v>
       </c>
       <c r="D239" t="n">
         <v>152</v>
       </c>
       <c r="E239" t="n">
-        <v>2435</v>
+        <v>2449</v>
       </c>
       <c r="F239" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -6424,23 +6424,23 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>19.01.2021</t>
+          <t>20.01.2021</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>2983</v>
+        <v>2995</v>
       </c>
       <c r="C240" t="n">
-        <v>12053</v>
+        <v>12111</v>
       </c>
       <c r="D240" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E240" t="n">
-        <v>2422</v>
+        <v>2435</v>
       </c>
       <c r="F240" t="n">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -6449,23 +6449,23 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>18.01.2021</t>
+          <t>19.01.2021</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>2962</v>
+        <v>2983</v>
       </c>
       <c r="C241" t="n">
-        <v>11970</v>
+        <v>12053</v>
       </c>
       <c r="D241" t="n">
         <v>147</v>
       </c>
       <c r="E241" t="n">
-        <v>2365</v>
+        <v>2422</v>
       </c>
       <c r="F241" t="n">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -6474,23 +6474,23 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>17.01.2021</t>
+          <t>18.01.2021</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>2959</v>
+        <v>2962</v>
       </c>
       <c r="C242" t="n">
-        <v>11943</v>
+        <v>11970</v>
       </c>
       <c r="D242" t="n">
         <v>147</v>
       </c>
       <c r="E242" t="n">
-        <v>2308</v>
+        <v>2365</v>
       </c>
       <c r="F242" t="n">
-        <v>504</v>
+        <v>450</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -6499,23 +6499,23 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>16.01.2021</t>
+          <t>17.01.2021</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="C243" t="n">
-        <v>11909</v>
+        <v>11943</v>
       </c>
       <c r="D243" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E243" t="n">
-        <v>2305</v>
+        <v>2308</v>
       </c>
       <c r="F243" t="n">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -6524,23 +6524,23 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>15.01.2021</t>
+          <t>16.01.2021</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>2938</v>
+        <v>2958</v>
       </c>
       <c r="C244" t="n">
-        <v>11842</v>
+        <v>11909</v>
       </c>
       <c r="D244" t="n">
         <v>146</v>
       </c>
       <c r="E244" t="n">
-        <v>2293</v>
+        <v>2305</v>
       </c>
       <c r="F244" t="n">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -6549,23 +6549,23 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>14.01.2021</t>
+          <t>15.01.2021</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2913</v>
+        <v>2938</v>
       </c>
       <c r="C245" t="n">
-        <v>11779</v>
+        <v>11842</v>
       </c>
       <c r="D245" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E245" t="n">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="F245" t="n">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -6574,23 +6574,23 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>13.01.2021</t>
+          <t>14.01.2021</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>2898</v>
+        <v>2913</v>
       </c>
       <c r="C246" t="n">
-        <v>11692</v>
+        <v>11779</v>
       </c>
       <c r="D246" t="n">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E246" t="n">
-        <v>2090</v>
+        <v>2292</v>
       </c>
       <c r="F246" t="n">
-        <v>662</v>
+        <v>475</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -6599,23 +6599,23 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>12.01.2021</t>
+          <t>13.01.2021</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>2889</v>
+        <v>2898</v>
       </c>
       <c r="C247" t="n">
-        <v>11608</v>
+        <v>11692</v>
       </c>
       <c r="D247" t="n">
         <v>146</v>
       </c>
       <c r="E247" t="n">
-        <v>2080</v>
+        <v>2090</v>
       </c>
       <c r="F247" t="n">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -6624,23 +6624,23 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>11.01.2021</t>
+          <t>12.01.2021</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>2875</v>
+        <v>2889</v>
       </c>
       <c r="C248" t="n">
-        <v>11529</v>
+        <v>11608</v>
       </c>
       <c r="D248" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E248" t="n">
-        <v>1963</v>
+        <v>2080</v>
       </c>
       <c r="F248" t="n">
-        <v>768</v>
+        <v>663</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
@@ -6649,23 +6649,23 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>10.01.2021</t>
+          <t>11.01.2021</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>2869</v>
+        <v>2875</v>
       </c>
       <c r="C249" t="n">
-        <v>11486</v>
+        <v>11529</v>
       </c>
       <c r="D249" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E249" t="n">
-        <v>1852</v>
+        <v>1963</v>
       </c>
       <c r="F249" t="n">
-        <v>876</v>
+        <v>768</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
@@ -6674,23 +6674,23 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>09.01.2021</t>
+          <t>10.01.2021</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2854</v>
+        <v>2869</v>
       </c>
       <c r="C250" t="n">
-        <v>11408</v>
+        <v>11486</v>
       </c>
       <c r="D250" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E250" t="n">
-        <v>1750</v>
+        <v>1852</v>
       </c>
       <c r="F250" t="n">
-        <v>964</v>
+        <v>876</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
@@ -6699,23 +6699,23 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>08.01.2021</t>
+          <t>09.01.2021</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>2834</v>
+        <v>2854</v>
       </c>
       <c r="C251" t="n">
-        <v>11345</v>
+        <v>11408</v>
       </c>
       <c r="D251" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E251" t="n">
-        <v>1648</v>
+        <v>1750</v>
       </c>
       <c r="F251" t="n">
-        <v>1047</v>
+        <v>964</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -6724,23 +6724,23 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>05.01.2021</t>
+          <t>08.01.2021</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>2780</v>
+        <v>2834</v>
       </c>
       <c r="C252" t="n">
-        <v>11177</v>
+        <v>11345</v>
       </c>
       <c r="D252" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E252" t="n">
-        <v>1494</v>
+        <v>1648</v>
       </c>
       <c r="F252" t="n">
-        <v>1150</v>
+        <v>1047</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
@@ -6749,25 +6749,50 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
+          <t>05.01.2021</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>2780</v>
+      </c>
+      <c r="C253" t="n">
+        <v>11177</v>
+      </c>
+      <c r="D253" t="n">
+        <v>136</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1494</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
           <t>03.01.2021</t>
         </is>
       </c>
-      <c r="B253" t="n">
+      <c r="B254" t="n">
         <v>2737</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C254" t="n">
         <v>11026</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D254" t="n">
         <v>134</v>
       </c>
-      <c r="E253" t="n">
+      <c r="E254" t="n">
         <v>1475</v>
       </c>
-      <c r="F253" t="n">
+      <c r="F254" t="n">
         <v>1128</v>
       </c>
-      <c r="G253" t="n">
+      <c r="G254" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dataSet/rawData/bd.xlsx
+++ b/dataSet/rawData/bd.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G254"/>
+  <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,23 +6274,23 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>28.01.2021</t>
+          <t>02.02.2021</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>3091</v>
+        <v>3142</v>
       </c>
       <c r="C234" t="n">
-        <v>12565</v>
+        <v>12794</v>
       </c>
       <c r="D234" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E234" t="n">
-        <v>2521</v>
+        <v>2557</v>
       </c>
       <c r="F234" t="n">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6299,23 +6299,23 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>27.01.2021</t>
+          <t>01.02.2021</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>3078</v>
+        <v>3116</v>
       </c>
       <c r="C235" t="n">
-        <v>12500</v>
+        <v>12727</v>
       </c>
       <c r="D235" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E235" t="n">
-        <v>2502</v>
+        <v>2553</v>
       </c>
       <c r="F235" t="n">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -6324,23 +6324,23 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>26.01.2021</t>
+          <t>29.01.2021</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>3062</v>
+        <v>3104</v>
       </c>
       <c r="C236" t="n">
-        <v>12441</v>
+        <v>12611</v>
       </c>
       <c r="D236" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E236" t="n">
-        <v>2501</v>
+        <v>2522</v>
       </c>
       <c r="F236" t="n">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -6349,23 +6349,23 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>25.01.2021</t>
+          <t>28.01.2021</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>3040</v>
+        <v>3091</v>
       </c>
       <c r="C237" t="n">
-        <v>12375</v>
+        <v>12565</v>
       </c>
       <c r="D237" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E237" t="n">
-        <v>2492</v>
+        <v>2521</v>
       </c>
       <c r="F237" t="n">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -6374,23 +6374,23 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>22.01.2021</t>
+          <t>27.01.2021</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>3022</v>
+        <v>3078</v>
       </c>
       <c r="C238" t="n">
-        <v>12217</v>
+        <v>12500</v>
       </c>
       <c r="D238" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E238" t="n">
-        <v>2454</v>
+        <v>2502</v>
       </c>
       <c r="F238" t="n">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -6399,20 +6399,20 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>21.01.2021</t>
+          <t>26.01.2021</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>3006</v>
+        <v>3062</v>
       </c>
       <c r="C239" t="n">
-        <v>12167</v>
+        <v>12441</v>
       </c>
       <c r="D239" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E239" t="n">
-        <v>2449</v>
+        <v>2501</v>
       </c>
       <c r="F239" t="n">
         <v>405</v>
@@ -6424,23 +6424,23 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20.01.2021</t>
+          <t>25.01.2021</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>2995</v>
+        <v>3040</v>
       </c>
       <c r="C240" t="n">
-        <v>12111</v>
+        <v>12375</v>
       </c>
       <c r="D240" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E240" t="n">
-        <v>2435</v>
+        <v>2492</v>
       </c>
       <c r="F240" t="n">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -6449,23 +6449,23 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>19.01.2021</t>
+          <t>22.01.2021</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>2983</v>
+        <v>3022</v>
       </c>
       <c r="C241" t="n">
-        <v>12053</v>
+        <v>12217</v>
       </c>
       <c r="D241" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E241" t="n">
-        <v>2422</v>
+        <v>2454</v>
       </c>
       <c r="F241" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -6474,23 +6474,23 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>18.01.2021</t>
+          <t>21.01.2021</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>2962</v>
+        <v>3006</v>
       </c>
       <c r="C242" t="n">
-        <v>11970</v>
+        <v>12167</v>
       </c>
       <c r="D242" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E242" t="n">
-        <v>2365</v>
+        <v>2449</v>
       </c>
       <c r="F242" t="n">
-        <v>450</v>
+        <v>405</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -6499,23 +6499,23 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>17.01.2021</t>
+          <t>20.01.2021</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2959</v>
+        <v>2995</v>
       </c>
       <c r="C243" t="n">
-        <v>11943</v>
+        <v>12111</v>
       </c>
       <c r="D243" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E243" t="n">
-        <v>2308</v>
+        <v>2435</v>
       </c>
       <c r="F243" t="n">
-        <v>504</v>
+        <v>408</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -6524,23 +6524,23 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>16.01.2021</t>
+          <t>19.01.2021</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>2958</v>
+        <v>2983</v>
       </c>
       <c r="C244" t="n">
-        <v>11909</v>
+        <v>12053</v>
       </c>
       <c r="D244" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E244" t="n">
-        <v>2305</v>
+        <v>2422</v>
       </c>
       <c r="F244" t="n">
-        <v>507</v>
+        <v>414</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -6549,23 +6549,23 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>15.01.2021</t>
+          <t>18.01.2021</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2938</v>
+        <v>2962</v>
       </c>
       <c r="C245" t="n">
-        <v>11842</v>
+        <v>11970</v>
       </c>
       <c r="D245" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E245" t="n">
-        <v>2293</v>
+        <v>2365</v>
       </c>
       <c r="F245" t="n">
-        <v>499</v>
+        <v>450</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -6574,23 +6574,23 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>14.01.2021</t>
+          <t>17.01.2021</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>2913</v>
+        <v>2959</v>
       </c>
       <c r="C246" t="n">
-        <v>11779</v>
+        <v>11943</v>
       </c>
       <c r="D246" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E246" t="n">
-        <v>2292</v>
+        <v>2308</v>
       </c>
       <c r="F246" t="n">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -6599,23 +6599,23 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>13.01.2021</t>
+          <t>16.01.2021</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>2898</v>
+        <v>2958</v>
       </c>
       <c r="C247" t="n">
-        <v>11692</v>
+        <v>11909</v>
       </c>
       <c r="D247" t="n">
         <v>146</v>
       </c>
       <c r="E247" t="n">
-        <v>2090</v>
+        <v>2305</v>
       </c>
       <c r="F247" t="n">
-        <v>662</v>
+        <v>507</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -6624,23 +6624,23 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>12.01.2021</t>
+          <t>15.01.2021</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>2889</v>
+        <v>2938</v>
       </c>
       <c r="C248" t="n">
-        <v>11608</v>
+        <v>11842</v>
       </c>
       <c r="D248" t="n">
         <v>146</v>
       </c>
       <c r="E248" t="n">
-        <v>2080</v>
+        <v>2293</v>
       </c>
       <c r="F248" t="n">
-        <v>663</v>
+        <v>499</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
@@ -6649,23 +6649,23 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>11.01.2021</t>
+          <t>14.01.2021</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>2875</v>
+        <v>2913</v>
       </c>
       <c r="C249" t="n">
-        <v>11529</v>
+        <v>11779</v>
       </c>
       <c r="D249" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E249" t="n">
-        <v>1963</v>
+        <v>2292</v>
       </c>
       <c r="F249" t="n">
-        <v>768</v>
+        <v>475</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
@@ -6674,23 +6674,23 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>10.01.2021</t>
+          <t>13.01.2021</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2869</v>
+        <v>2898</v>
       </c>
       <c r="C250" t="n">
-        <v>11486</v>
+        <v>11692</v>
       </c>
       <c r="D250" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E250" t="n">
-        <v>1852</v>
+        <v>2090</v>
       </c>
       <c r="F250" t="n">
-        <v>876</v>
+        <v>662</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
@@ -6699,23 +6699,23 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>09.01.2021</t>
+          <t>12.01.2021</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>2854</v>
+        <v>2889</v>
       </c>
       <c r="C251" t="n">
-        <v>11408</v>
+        <v>11608</v>
       </c>
       <c r="D251" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E251" t="n">
-        <v>1750</v>
+        <v>2080</v>
       </c>
       <c r="F251" t="n">
-        <v>964</v>
+        <v>663</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -6724,23 +6724,23 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>08.01.2021</t>
+          <t>11.01.2021</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>2834</v>
+        <v>2875</v>
       </c>
       <c r="C252" t="n">
-        <v>11345</v>
+        <v>11529</v>
       </c>
       <c r="D252" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E252" t="n">
-        <v>1648</v>
+        <v>1963</v>
       </c>
       <c r="F252" t="n">
-        <v>1047</v>
+        <v>768</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
@@ -6749,23 +6749,23 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>05.01.2021</t>
+          <t>10.01.2021</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>2780</v>
+        <v>2869</v>
       </c>
       <c r="C253" t="n">
-        <v>11177</v>
+        <v>11486</v>
       </c>
       <c r="D253" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E253" t="n">
-        <v>1494</v>
+        <v>1852</v>
       </c>
       <c r="F253" t="n">
-        <v>1150</v>
+        <v>876</v>
       </c>
       <c r="G253" t="n">
         <v>0</v>
@@ -6774,25 +6774,100 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
+          <t>09.01.2021</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>2854</v>
+      </c>
+      <c r="C254" t="n">
+        <v>11408</v>
+      </c>
+      <c r="D254" t="n">
+        <v>140</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1750</v>
+      </c>
+      <c r="F254" t="n">
+        <v>964</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>08.01.2021</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>2834</v>
+      </c>
+      <c r="C255" t="n">
+        <v>11345</v>
+      </c>
+      <c r="D255" t="n">
+        <v>139</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1648</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1047</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>05.01.2021</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>2780</v>
+      </c>
+      <c r="C256" t="n">
+        <v>11177</v>
+      </c>
+      <c r="D256" t="n">
+        <v>136</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1494</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
           <t>03.01.2021</t>
         </is>
       </c>
-      <c r="B254" t="n">
+      <c r="B257" t="n">
         <v>2737</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C257" t="n">
         <v>11026</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D257" t="n">
         <v>134</v>
       </c>
-      <c r="E254" t="n">
+      <c r="E257" t="n">
         <v>1475</v>
       </c>
-      <c r="F254" t="n">
+      <c r="F257" t="n">
         <v>1128</v>
       </c>
-      <c r="G254" t="n">
+      <c r="G257" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dataSet/rawData/bd.xlsx
+++ b/dataSet/rawData/bd.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G257"/>
+  <dimension ref="A1:G258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,23 +6274,23 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>02.02.2021</t>
+          <t>03.02.2021</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>3142</v>
+        <v>3159</v>
       </c>
       <c r="C234" t="n">
-        <v>12794</v>
+        <v>12848</v>
       </c>
       <c r="D234" t="n">
         <v>163</v>
       </c>
       <c r="E234" t="n">
-        <v>2557</v>
+        <v>2562</v>
       </c>
       <c r="F234" t="n">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6299,23 +6299,23 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>01.02.2021</t>
+          <t>02.02.2021</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>3116</v>
+        <v>3142</v>
       </c>
       <c r="C235" t="n">
-        <v>12727</v>
+        <v>12794</v>
       </c>
       <c r="D235" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E235" t="n">
-        <v>2553</v>
+        <v>2557</v>
       </c>
       <c r="F235" t="n">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -6324,23 +6324,23 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>29.01.2021</t>
+          <t>01.02.2021</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>3104</v>
+        <v>3116</v>
       </c>
       <c r="C236" t="n">
-        <v>12611</v>
+        <v>12727</v>
       </c>
       <c r="D236" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E236" t="n">
-        <v>2522</v>
+        <v>2553</v>
       </c>
       <c r="F236" t="n">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -6349,23 +6349,23 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>28.01.2021</t>
+          <t>29.01.2021</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>3091</v>
+        <v>3104</v>
       </c>
       <c r="C237" t="n">
-        <v>12565</v>
+        <v>12611</v>
       </c>
       <c r="D237" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E237" t="n">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="F237" t="n">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -6374,23 +6374,23 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>27.01.2021</t>
+          <t>28.01.2021</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>3078</v>
+        <v>3091</v>
       </c>
       <c r="C238" t="n">
-        <v>12500</v>
+        <v>12565</v>
       </c>
       <c r="D238" t="n">
         <v>156</v>
       </c>
       <c r="E238" t="n">
-        <v>2502</v>
+        <v>2521</v>
       </c>
       <c r="F238" t="n">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -6399,23 +6399,23 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>26.01.2021</t>
+          <t>27.01.2021</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>3062</v>
+        <v>3078</v>
       </c>
       <c r="C239" t="n">
-        <v>12441</v>
+        <v>12500</v>
       </c>
       <c r="D239" t="n">
         <v>156</v>
       </c>
       <c r="E239" t="n">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="F239" t="n">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -6424,23 +6424,23 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>25.01.2021</t>
+          <t>26.01.2021</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>3040</v>
+        <v>3062</v>
       </c>
       <c r="C240" t="n">
-        <v>12375</v>
+        <v>12441</v>
       </c>
       <c r="D240" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E240" t="n">
-        <v>2492</v>
+        <v>2501</v>
       </c>
       <c r="F240" t="n">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -6449,23 +6449,23 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>22.01.2021</t>
+          <t>25.01.2021</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>3022</v>
+        <v>3040</v>
       </c>
       <c r="C241" t="n">
-        <v>12217</v>
+        <v>12375</v>
       </c>
       <c r="D241" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E241" t="n">
-        <v>2454</v>
+        <v>2492</v>
       </c>
       <c r="F241" t="n">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -6474,23 +6474,23 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>21.01.2021</t>
+          <t>22.01.2021</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>3006</v>
+        <v>3022</v>
       </c>
       <c r="C242" t="n">
-        <v>12167</v>
+        <v>12217</v>
       </c>
       <c r="D242" t="n">
         <v>152</v>
       </c>
       <c r="E242" t="n">
-        <v>2449</v>
+        <v>2454</v>
       </c>
       <c r="F242" t="n">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -6499,23 +6499,23 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20.01.2021</t>
+          <t>21.01.2021</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2995</v>
+        <v>3006</v>
       </c>
       <c r="C243" t="n">
-        <v>12111</v>
+        <v>12167</v>
       </c>
       <c r="D243" t="n">
         <v>152</v>
       </c>
       <c r="E243" t="n">
-        <v>2435</v>
+        <v>2449</v>
       </c>
       <c r="F243" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -6524,23 +6524,23 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>19.01.2021</t>
+          <t>20.01.2021</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>2983</v>
+        <v>2995</v>
       </c>
       <c r="C244" t="n">
-        <v>12053</v>
+        <v>12111</v>
       </c>
       <c r="D244" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E244" t="n">
-        <v>2422</v>
+        <v>2435</v>
       </c>
       <c r="F244" t="n">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -6549,23 +6549,23 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>18.01.2021</t>
+          <t>19.01.2021</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2962</v>
+        <v>2983</v>
       </c>
       <c r="C245" t="n">
-        <v>11970</v>
+        <v>12053</v>
       </c>
       <c r="D245" t="n">
         <v>147</v>
       </c>
       <c r="E245" t="n">
-        <v>2365</v>
+        <v>2422</v>
       </c>
       <c r="F245" t="n">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -6574,23 +6574,23 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>17.01.2021</t>
+          <t>18.01.2021</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>2959</v>
+        <v>2962</v>
       </c>
       <c r="C246" t="n">
-        <v>11943</v>
+        <v>11970</v>
       </c>
       <c r="D246" t="n">
         <v>147</v>
       </c>
       <c r="E246" t="n">
-        <v>2308</v>
+        <v>2365</v>
       </c>
       <c r="F246" t="n">
-        <v>504</v>
+        <v>450</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -6599,23 +6599,23 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>16.01.2021</t>
+          <t>17.01.2021</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="C247" t="n">
-        <v>11909</v>
+        <v>11943</v>
       </c>
       <c r="D247" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E247" t="n">
-        <v>2305</v>
+        <v>2308</v>
       </c>
       <c r="F247" t="n">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -6624,23 +6624,23 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>15.01.2021</t>
+          <t>16.01.2021</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>2938</v>
+        <v>2958</v>
       </c>
       <c r="C248" t="n">
-        <v>11842</v>
+        <v>11909</v>
       </c>
       <c r="D248" t="n">
         <v>146</v>
       </c>
       <c r="E248" t="n">
-        <v>2293</v>
+        <v>2305</v>
       </c>
       <c r="F248" t="n">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
@@ -6649,23 +6649,23 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>14.01.2021</t>
+          <t>15.01.2021</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>2913</v>
+        <v>2938</v>
       </c>
       <c r="C249" t="n">
-        <v>11779</v>
+        <v>11842</v>
       </c>
       <c r="D249" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E249" t="n">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="F249" t="n">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
@@ -6674,23 +6674,23 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>13.01.2021</t>
+          <t>14.01.2021</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2898</v>
+        <v>2913</v>
       </c>
       <c r="C250" t="n">
-        <v>11692</v>
+        <v>11779</v>
       </c>
       <c r="D250" t="n">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E250" t="n">
-        <v>2090</v>
+        <v>2292</v>
       </c>
       <c r="F250" t="n">
-        <v>662</v>
+        <v>475</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
@@ -6699,23 +6699,23 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>12.01.2021</t>
+          <t>13.01.2021</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>2889</v>
+        <v>2898</v>
       </c>
       <c r="C251" t="n">
-        <v>11608</v>
+        <v>11692</v>
       </c>
       <c r="D251" t="n">
         <v>146</v>
       </c>
       <c r="E251" t="n">
-        <v>2080</v>
+        <v>2090</v>
       </c>
       <c r="F251" t="n">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -6724,23 +6724,23 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>11.01.2021</t>
+          <t>12.01.2021</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>2875</v>
+        <v>2889</v>
       </c>
       <c r="C252" t="n">
-        <v>11529</v>
+        <v>11608</v>
       </c>
       <c r="D252" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E252" t="n">
-        <v>1963</v>
+        <v>2080</v>
       </c>
       <c r="F252" t="n">
-        <v>768</v>
+        <v>663</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
@@ -6749,23 +6749,23 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>10.01.2021</t>
+          <t>11.01.2021</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>2869</v>
+        <v>2875</v>
       </c>
       <c r="C253" t="n">
-        <v>11486</v>
+        <v>11529</v>
       </c>
       <c r="D253" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E253" t="n">
-        <v>1852</v>
+        <v>1963</v>
       </c>
       <c r="F253" t="n">
-        <v>876</v>
+        <v>768</v>
       </c>
       <c r="G253" t="n">
         <v>0</v>
@@ -6774,23 +6774,23 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>09.01.2021</t>
+          <t>10.01.2021</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>2854</v>
+        <v>2869</v>
       </c>
       <c r="C254" t="n">
-        <v>11408</v>
+        <v>11486</v>
       </c>
       <c r="D254" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E254" t="n">
-        <v>1750</v>
+        <v>1852</v>
       </c>
       <c r="F254" t="n">
-        <v>964</v>
+        <v>876</v>
       </c>
       <c r="G254" t="n">
         <v>0</v>
@@ -6799,23 +6799,23 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>08.01.2021</t>
+          <t>09.01.2021</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>2834</v>
+        <v>2854</v>
       </c>
       <c r="C255" t="n">
-        <v>11345</v>
+        <v>11408</v>
       </c>
       <c r="D255" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E255" t="n">
-        <v>1648</v>
+        <v>1750</v>
       </c>
       <c r="F255" t="n">
-        <v>1047</v>
+        <v>964</v>
       </c>
       <c r="G255" t="n">
         <v>0</v>
@@ -6824,23 +6824,23 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>05.01.2021</t>
+          <t>08.01.2021</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>2780</v>
+        <v>2834</v>
       </c>
       <c r="C256" t="n">
-        <v>11177</v>
+        <v>11345</v>
       </c>
       <c r="D256" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E256" t="n">
-        <v>1494</v>
+        <v>1648</v>
       </c>
       <c r="F256" t="n">
-        <v>1150</v>
+        <v>1047</v>
       </c>
       <c r="G256" t="n">
         <v>0</v>
@@ -6849,25 +6849,50 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
+          <t>05.01.2021</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>2780</v>
+      </c>
+      <c r="C257" t="n">
+        <v>11177</v>
+      </c>
+      <c r="D257" t="n">
+        <v>136</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1494</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
           <t>03.01.2021</t>
         </is>
       </c>
-      <c r="B257" t="n">
+      <c r="B258" t="n">
         <v>2737</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C258" t="n">
         <v>11026</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D258" t="n">
         <v>134</v>
       </c>
-      <c r="E257" t="n">
+      <c r="E258" t="n">
         <v>1475</v>
       </c>
-      <c r="F257" t="n">
+      <c r="F258" t="n">
         <v>1128</v>
       </c>
-      <c r="G257" t="n">
+      <c r="G258" t="n">
         <v>0</v>
       </c>
     </row>
